--- a/data/Producao_tecnica_Doutorandos.xlsx
+++ b/data/Producao_tecnica_Doutorandos.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C102"/>
+  <dimension ref="A1:C91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1570,83 +1570,82 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Keicy Salustiano da Silva</t>
+          <t>Laís Morgado Marcoje</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Projeto de Extensão: " Anjo da História": plataforma digital de divulgação e debate histórico. 2023. (Outra).</t>
+          <t>MARCOJE, L. M.. Parecer ad hoc da Revista Temporalidades ? Revista Discente do Programa de Pós- Graduação em História da UFMG,. 2021.</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Keicy Salustiano da Silva</t>
+          <t>Lucas Sampaio Costa Souza</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>31° Simpósio Nacional de História: História, Verdade e Tecnologia.
-						2021. (Simpósio).</t>
+          <t>SOUZA, L. S. C.. Avaliação: A bengala de Pai Joaquim bate devagar, mas pode doer: as filosofias populares brasileiras através das narrativas de histórias e resistências de tempos de cativeiro contadas por Pretos e Pretas Velhas.. 2022.</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Keicy Salustiano da Silva</t>
+          <t>Lucas Sampaio Costa Souza</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Aula Magna PPGH UNIRIO- Usos do Passado Greco-Romano em Discursos Racistas e Supremacistas Atuais. 2021. (Outra).</t>
+          <t>SOUZA, L. S. C.. As alegrias da maternidade: uma breve análise das tensões entre o moderno e o tradicional vistas a partir das relações de e com o trabalho. 2022.</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Keicy Salustiano da Silva</t>
+          <t>Maya Moldes da Rocha Pereira</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>CONGRESSO INTERNACIONAL DE JUSTIÇA RESTAURATIVA - DISCURSOS DOMINANTES E CAMINHOS DE RESISTÊNCIA E POTÊNCIAS. 2021. (Congresso).</t>
+          <t>MOLDES,M.. Parecer para a revista História da Historiografia: International Journal of Theory and History of Historiography. 2024.</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Keicy Salustiano da Silva</t>
+          <t>Maya Moldes da Rocha Pereira</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>I Ciclo Discente Online ? PPGH-UFSC História, Literatura e Imprensa. 2021. (Outra).</t>
+          <t>MOLDES,M.. Parecer para a Oré - Revista Discente de Estudos Históricos da UNIRIO. 2023.</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Keicy Salustiano da Silva</t>
+          <t>Millena Souza Farias</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -1654,29 +1653,29 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>webconferência: Os mortos entre aparições, assombrações e outras danações,. 2021. (Exposição).</t>
+          <t>FARIAS, Millena S.. Parecer ad hoc - Revista Cantareira. 2021.</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Keicy Salustiano da Silva</t>
+          <t>Mirella Soraya Pinheiro Rodrigues de Oliveira</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>SILVA, K. S.. Anpuh AM. 2023. (Outro).</t>
+          <t>OLIVEIRA, M.. Parecerista ad hoc da Revista Discente de Estudos Históricos da UNIRIO (Revista Oré). 2022.</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Laís Morgado Marcoje</t>
+          <t>Mylena Porto da Gama</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -1684,59 +1683,59 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>MARCOJE, L. M.. Parecer ad hoc da Revista Temporalidades ? Revista Discente do Programa de Pós- Graduação em História da UFMG,. 2021.</t>
+          <t>GAMA, Mylena. Parecerista ad hoc da Revista Temporalidades. 2021.</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Lucas Sampaio Costa Souza</t>
+          <t>Pedro Henrique da Silva Oriola Cardoso</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>SOUZA, L. S. C.. Avaliação: A bengala de Pai Joaquim bate devagar, mas pode doer: as filosofias populares brasileiras através das narrativas de histórias e resistências de tempos de cativeiro contadas por Pretos e Pretas Velhas.. 2022.</t>
+          <t>CARDOSO, Pedro. Revista AEDOS- Revista do corpo discente do PPGH- UFRGS. 2024.</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Lucas Sampaio Costa Souza</t>
+          <t>Pedro Henrique da Silva Oriola Cardoso</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>SOUZA, L. S. C.. As alegrias da maternidade: uma breve análise das tensões entre o moderno e o tradicional vistas a partir das relações de e com o trabalho. 2022.</t>
+          <t>CARDOSO, Pedro Henrique da Silva Oriola. Revista AEDOS- Revista do corpo discente do PPGH- UFRGS. 2024.</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Maristela Santana</t>
+          <t>Pedro Henrique da Silva Oriola Cardoso</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>III Colóquio Internacional em Pesquisas em História do Brasil Impérioério. 2022. (Seminário).</t>
+          <t>CARDOSO, Pedro. Projeto História Revista do Programa de Estudos Pós Graduados de História- PUC- SP. 2023.</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Maristela Santana</t>
+          <t>Pedro Henrique Ferreira Danese Oliveira</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -1744,230 +1743,65 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>III Encontro Internacional Sociedades Escravistas nas Américas: Terra e Família. 2022. (Seminário).</t>
+          <t>OLIVEIRA, P. H. F. D.. Parecer artigo Revista Entrelinhas-UFOP. 2022.</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Maristela Santana</t>
+          <t>Rafael Vieira da Cal</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Infâncias negras no Brasil escravista. 2021. (Outra).</t>
+          <t>CAL, R.. Paracer Ad hoc - Revista História em Curso. 2024.</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Maristela Santana</t>
+          <t>Suane Felippe Soares</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>KLANG, M. ; CARDOZO, N. T. ;SANTANA, M.. Ministério Público: 131 anos no Rio de Janeiro. 2022. (Exposição).</t>
+          <t>TAGLIAMENTO, G. ; BRUNETTO, D. ; ALMEIDA, R. M. ;SOARES, S. F.. I LesboCenso Nacional: Mapeamento de Vivências Lésbicas no Brasil Relatório Descritivo 1ª Etapa (2021-2022). 2022.</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Maya Moldes da Rocha Pereira</t>
+          <t>Suane Felippe Soares</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>MOLDES,M.. Parecer para a revista História da Historiografia: International Journal of Theory and History of Historiography. 2024.</t>
+          <t>TAGLIAMENTO, G. ; BRUNETTO, D. ; ALMEIDA, R. M. ;SOARES, S. F.. I LesboCenso Nacional: Mapeamento de Vivências Lésbicas no Brasil Relatório Descritivo 1ª Etapa (2021-2022). 2022.</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Maya Moldes da Rocha Pereira</t>
+          <t>Thays Alves Rodrigues</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C91" t="inlineStr">
-        <is>
-          <t>MOLDES,M.. Parecer para a Oré - Revista Discente de Estudos Históricos da UNIRIO. 2023.</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>Millena Souza Farias</t>
-        </is>
-      </c>
-      <c r="B92" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>FARIAS, Millena S.. Parecer ad hoc - Revista Cantareira. 2021.</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>Mirella Soraya Pinheiro Rodrigues de Oliveira</t>
-        </is>
-      </c>
-      <c r="B93" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>OLIVEIRA, M.. Parecerista ad hoc da Revista Discente de Estudos Históricos da UNIRIO (Revista Oré). 2022.</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>Mylena Porto da Gama</t>
-        </is>
-      </c>
-      <c r="B94" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>GAMA, Mylena. Parecerista ad hoc da Revista Temporalidades. 2021.</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>Pedro Henrique da Silva Oriola Cardoso</t>
-        </is>
-      </c>
-      <c r="B95" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>CARDOSO, Pedro. Revista AEDOS- Revista do corpo discente do PPGH- UFRGS. 2024.</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>Pedro Henrique da Silva Oriola Cardoso</t>
-        </is>
-      </c>
-      <c r="B96" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>CARDOSO, Pedro Henrique da Silva Oriola. Revista AEDOS- Revista do corpo discente do PPGH- UFRGS. 2024.</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>Pedro Henrique da Silva Oriola Cardoso</t>
-        </is>
-      </c>
-      <c r="B97" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>CARDOSO, Pedro. Projeto História Revista do Programa de Estudos Pós Graduados de História- PUC- SP. 2023.</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>Pedro Henrique Ferreira Danese Oliveira</t>
-        </is>
-      </c>
-      <c r="B98" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>OLIVEIRA, P. H. F. D.. Parecer artigo Revista Entrelinhas-UFOP. 2022.</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>Rafael Vieira da Cal</t>
-        </is>
-      </c>
-      <c r="B99" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>CAL, R.. Paracer Ad hoc - Revista História em Curso. 2024.</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>Suane Felippe Soares</t>
-        </is>
-      </c>
-      <c r="B100" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>TAGLIAMENTO, G. ; BRUNETTO, D. ; ALMEIDA, R. M. ;SOARES, S. F.. I LesboCenso Nacional: Mapeamento de Vivências Lésbicas no Brasil Relatório Descritivo 1ª Etapa (2021-2022). 2022.</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>Suane Felippe Soares</t>
-        </is>
-      </c>
-      <c r="B101" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>TAGLIAMENTO, G. ; BRUNETTO, D. ; ALMEIDA, R. M. ;SOARES, S. F.. I LesboCenso Nacional: Mapeamento de Vivências Lésbicas no Brasil Relatório Descritivo 1ª Etapa (2021-2022). 2022.</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>Thays Alves Rodrigues</t>
-        </is>
-      </c>
-      <c r="B102" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C102" t="inlineStr">
         <is>
           <t>RODRIGUES, T. A;RODRIGUES, T. A.. Uma Banda em Nossas Vidas. 2024.</t>
         </is>
@@ -2116,7 +1950,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2153,127 +1987,6 @@
       <c r="C2" t="inlineStr">
         <is>
           <t>SILVEIRA, H. S.. Aqueles  que  querem  ser  irmãos:  religiosidade  e  liberdade  nos  anos  finais  da escravidão. 2021 (Resumo publicado) .</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Julia Amaral Amato Moreira</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>I Congresso Internacional de Pesquisadores em Estudos Judaicos. Os judeus e a Ditadura Militar em Minas Gerais. 2023. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Julia Amaral Amato Moreira</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Jornada Manoel Salgado. Pensar as relações etno-identitárias no mundo político: os judeus e a Ditadura Militar em Minas Gerais. 2023. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Julia Amaral Amato Moreira</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>AMARAL, Julia.; GHERMAN, M. ; MIZRAHI, G. ; LEMOS, B. ; ASSAF, S. . Usos políticos do Holocausto e do Genocidio. 2024. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Julia Amaral Amato Moreira</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>AMARAL, Julia.. Encontro de Pesquisa: História Política e Extrema Direita. 2023. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Julia Amaral Amato Moreira</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>AMARAL, Julia.; LEITE, Alana de Moraes ; KOGAN, A. ; ALBUQUERQUE, J. . Seminário IBI/LABÔ: Antissemitismo, História e memória do Holocausto. 2022. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Julia Amaral Amato Moreira</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>AMARAL, Julia.; GHERMAN, M. . Educação e Genocídios: a tarefa de educar sobre o Holocausto em tempos de fake news. 2021. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Rodrigo Rocha da Cunha</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>4o. Encontro Internacional História e Parcerias.AS BOTICAS JESUÍTICAS NO RIO DE JANEIRO (1700 E 1760).
-						2024. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Rodrigo Rocha da Cunha</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>o 1° CONGRESSO PAULISTA - HISTÓRIA DAS PRÁTICAS MÉDICAS E DA SAÚDE. AS BOTICAS JESUÍTICAS NO RIO DE JANEIRO (1700 E 1760). 2024. (Congresso).</t>
         </is>
       </c>
     </row>
@@ -2288,7 +2001,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2348,7 +2061,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Ana Lectícia Felix Angelotti</t>
+          <t>Eraldo de Souza Leão Filho</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -2356,15 +2069,15 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>I Jornada Literatura e Ditaduras.
-						2021. (Encontro).</t>
+          <t>LEÃO FILHO, E. S.. História da Igreja no Brasil Colonial e Imperial: A formação de Dioceses. 2021; Tema:
+						A formação de Dioceses no Brasil colonial e imperial. (Rede social).</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ana Lectícia Felix Angelotti</t>
+          <t>Eraldo de Souza Leão Filho</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -2372,30 +2085,30 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Leituras do contemporâneo: literatura e crítica no Brasil e na Argentina.
-						2021. (Encontro).</t>
+          <t>LEÃO FILHO, E. S.;GONZAGA, W.;AMADO, J. P.. Quinquênio Jubilar Arquidiocesano: 80 anos de história e atividades acadêmicas da Puc-Rio. 2021; Tema:
+						80 anos de história e atividades acadêmicas da Puc-Rio. (Rede social).</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Ana Lectícia Felix Angelotti</t>
+          <t>Isabella Villarinho Pereyra</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ANGELOTTI, A. L. F.; MOLDES, M. ; SILVA, T. A. M. ; Rodrigues, H. E. . I Seminário Nacional História e Ficção. 2024. (Congresso).</t>
+          <t>PEREYRA, ISABELLA VILLARINHO. O ensino da ditadura militar: entre celebrações e batalhas de memória. 2021. (Site).</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Eraldo de Souza Leão Filho</t>
+          <t>Jefferson de Albuquerque Mendes</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -2403,15 +2116,15 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>LEÃO FILHO, E. S.. História da Igreja no Brasil Colonial e Imperial: A formação de Dioceses. 2021; Tema:
-						A formação de Dioceses no Brasil colonial e imperial. (Rede social).</t>
+          <t>MENDES, J. A.. Blog do Programa de Pós-Gradução em História da Arte - PPGHA/UERJ. 2021; Tema:
+						História da Arte Global. (Blog).</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Eraldo de Souza Leão Filho</t>
+          <t>Lucas Sampaio Costa Souza</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -2419,15 +2132,14 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>LEÃO FILHO, E. S.;GONZAGA, W.;AMADO, J. P.. Quinquênio Jubilar Arquidiocesano: 80 anos de história e atividades acadêmicas da Puc-Rio. 2021; Tema:
-						80 anos de história e atividades acadêmicas da Puc-Rio. (Rede social).</t>
+          <t>SOUZA, L. S. C.; MIRANDA, B. C. . Papo com Lucas Sampaio sobre a relação entre ficção e história na obra de Chimamanda Ngozi Adichie. 2021. (Rede social).</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Geisimara Soares Matos</t>
+          <t>Mariana Freitas de Andrade</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -2435,14 +2147,14 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>MATOS, G. S.. Contradições e ambivalências na trajetória de Eduardo Ribeiro, o governador negro do Amazonas. In: Patricia Alves-Melo. (Org.). O Fim do Silêncio: presença negra na Amazônia.. 2ed.Curitiba: CRV, 2021, v. 5, p. 103-120.</t>
+          <t>ANDRADE, M. F.. Instagram da Revista Ars Historica. 2021. (Rede social).</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Giovanna Zamith Cesário</t>
+          <t>Mariana Freitas de Andrade</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -2450,46 +2162,46 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Colóquio Teatro e Sociedade."Controvérsias em torno do papel do ensaiador de teatro no Brasil dos séculos XIX-XX".
-						2021. (Simpósio).</t>
+          <t>ANDRADE, M. F.. Facebook da Revista Ars Historica. 2021. (Rede social).</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Giovanna Zamith Cesário</t>
+          <t>Maya Moldes da Rocha Pereira</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Conversas Sobre Teatro e Sociedade. 2021. (Outra).</t>
+          <t>MOLDES,M.. HISTOR. 2024; Tema:
+						Página de divulgação das atividades do HISTOR -  Núcleo de Estudos sobre Teoria da História e História da Historiografia. (Rede social).</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Giovanna Zamith Cesário</t>
+          <t>Maya Moldes da Rocha Pereira</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>IX Encontro de Pesquisa em História.Aymond, quem é Aymond? A história do garganta de ouro: o artista transformista argentino e seu impacto no Teatro Brasileiro"..
-						2021. (Encontro).</t>
+          <t>MOLDES,M.; ANGELOTTI, A. L. . LEFH. 2023; Tema:
+						Página de divulgação das atividades do LEFH - Laboratório de Estudos sobre Ficção e História. (Rede social).</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Giovanna Zamith Cesário</t>
+          <t>Naiara Müssnich Rotta Gomes de Assunção</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -2497,60 +2209,63 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CESÁRIO, G. Z.. IV Encontro Fluminense de Teoria da História e Historiografia. 2021. (Outro).</t>
+          <t>ASSUNÇÃO, Naiara M. R. G.; SILVA, Ana Terra de Leon ; PRESTES, Jéssica ; PASCHOAL, NINA INGRID CAPUTO . Coletivo Hunna: Historiadoras que Dançam. 2021; Tema:
+						Divulgação científica em história e dança. (Site).</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Isabella Villarinho Pereyra</t>
+          <t>Natalia de Souza Miranda</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>PEREYRA, ISABELLA VILLARINHO. O ensino da ditadura militar: entre celebrações e batalhas de memória. 2021. (Site).</t>
+          <t>MIRANDA, Natalia de Souza.. Descolonizando o Conhecimento UERJ. 2023; Tema:
+						Indicação de Leitura. (Rede social).</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Jefferson de Albuquerque Mendes</t>
+          <t>Paulo Celso Liberato Corrêa</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>MENDES, J. A.. Blog do Programa de Pós-Gradução em História da Arte - PPGHA/UERJ. 2021; Tema:
-						História da Arte Global. (Blog).</t>
+          <t>CORRÊA, P. C. L.. Google Arts &amp; Culture. 2023; Tema:
+						Em campanha com a Reação Republicana. (Site).</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Lucas Sampaio Costa Souza</t>
+          <t>Paulo Celso Liberato Corrêa</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SOUZA, L. S. C.; MIRANDA, B. C. . Papo com Lucas Sampaio sobre a relação entre ficção e história na obra de Chimamanda Ngozi Adichie. 2021. (Rede social).</t>
+          <t>CORRÊA, P. C. L.. Google Arts &amp; Culture. 2022; Tema:
+						A Guerra de Canudos na coleção Flávio de Barros. (Site).</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Mariana Freitas de Andrade</t>
+          <t>Paulo Celso Liberato Corrêa</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -2558,14 +2273,15 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ANDRADE, M. F.. Instagram da Revista Ars Historica. 2021. (Rede social).</t>
+          <t>CORRÊA, P. C. L.. Portal Brasiliana Fotográfica. 2021; Tema:
+						A Floresta da Tijuca na Coleção Família Passos. (Site).</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Mariana Freitas de Andrade</t>
+          <t>Paulo Celso Liberato Corrêa</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -2573,46 +2289,47 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ANDRADE, M. F.. Facebook da Revista Ars Historica. 2021. (Rede social).</t>
+          <t>CORRÊA, P. C. L.. Google Arts &amp; Culture. 2021; Tema:
+						Elaboração e montagem da página do Museu da República na plataforma Google Arts &amp; Culture.. (Site).</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Maya Moldes da Rocha Pereira</t>
+          <t>Paulo Celso Liberato Corrêa</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>MOLDES,M.. HISTOR. 2024; Tema:
-						Página de divulgação das atividades do HISTOR -  Núcleo de Estudos sobre Teoria da História e História da Historiografia. (Rede social).</t>
+          <t>CORRÊA, P. C. L.. Google Arts &amp; Culture. 2021; Tema:
+						De olho no 'Compromisso Constitucional'. (Site).</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Maya Moldes da Rocha Pereira</t>
+          <t>Paulo Celso Liberato Corrêa</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>MOLDES,M.; ANGELOTTI, A. L. . LEFH. 2023; Tema:
-						Página de divulgação das atividades do LEFH - Laboratório de Estudos sobre Ficção e História. (Rede social).</t>
+          <t>CORRÊA, P. C. L.. Google Arts &amp; Culture. 2021; Tema:
+						Fazendo a 'Pátria'. (Site).</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Naiara Müssnich Rotta Gomes de Assunção</t>
+          <t>Paulo Celso Liberato Corrêa</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -2620,149 +2337,21 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ASSUNÇÃO, Naiara M. R. G.; SILVA, Ana Terra de Leon ; PRESTES, Jéssica ; PASCHOAL, NINA INGRID CAPUTO . Coletivo Hunna: Historiadoras que Dançam. 2021; Tema:
-						Divulgação científica em história e dança. (Site).</t>
+          <t>CORRÊA, P. C. L.. Google Arts &amp; Culture. 2021; Tema:
+						De Palácio a Museu: uma breve história do Museu da República. (Site).</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Natalia de Souza Miranda</t>
+          <t>Rafael Vieira da Cal</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C22" t="inlineStr">
-        <is>
-          <t>MIRANDA, Natalia de Souza.. Descolonizando o Conhecimento UERJ. 2023; Tema:
-						Indicação de Leitura. (Rede social).</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Paulo Celso Liberato Corrêa</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>CORRÊA, P. C. L.. Google Arts &amp; Culture. 2023; Tema:
-						Em campanha com a Reação Republicana. (Site).</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Paulo Celso Liberato Corrêa</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>CORRÊA, P. C. L.. Google Arts &amp; Culture. 2022; Tema:
-						A Guerra de Canudos na coleção Flávio de Barros. (Site).</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Paulo Celso Liberato Corrêa</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>CORRÊA, P. C. L.. Portal Brasiliana Fotográfica. 2021; Tema:
-						A Floresta da Tijuca na Coleção Família Passos. (Site).</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Paulo Celso Liberato Corrêa</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>CORRÊA, P. C. L.. Google Arts &amp; Culture. 2021; Tema:
-						Elaboração e montagem da página do Museu da República na plataforma Google Arts &amp; Culture.. (Site).</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Paulo Celso Liberato Corrêa</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>CORRÊA, P. C. L.. Google Arts &amp; Culture. 2021; Tema:
-						De olho no 'Compromisso Constitucional'. (Site).</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Paulo Celso Liberato Corrêa</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>CORRÊA, P. C. L.. Google Arts &amp; Culture. 2021; Tema:
-						Fazendo a 'Pátria'. (Site).</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Paulo Celso Liberato Corrêa</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>CORRÊA, P. C. L.. Google Arts &amp; Culture. 2021; Tema:
-						De Palácio a Museu: uma breve história do Museu da República. (Site).</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Rafael Vieira da Cal</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C30" t="inlineStr">
         <is>
           <t>CAL, Rafael. Formas breves. 2022; Tema:
 						História e literatura. (Blog).</t>
@@ -2780,7 +2369,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C240"/>
+  <dimension ref="A1:C95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3012,53 +2601,54 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>André Arioza Vargas</t>
+          <t>Beatriz Monteiro Lemos</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Curso de Atualização em Estudos Asiáticos - Módulo II. 2021. (Outra).</t>
+          <t>VITAL, C. ;LEMOS, B. M.; German, M. ; SANTOS, L. . Extrema Direita no Brasi. 2024.
+						(Relatório de Pesquisa).</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>André Arioza Vargas</t>
+          <t>Bruna Aparecida Gomes Coelho</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Exiting violence: a long and difficult path. Some lessons from the historical experience of ETA.
-						2021. (Simpósio).</t>
+          <t>SARAIVA, Daniel L. ;COELHO, Bruna A. G.. A música de Ellen de Lima. 2022.
+						(Produtos Tecnológicos).</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>André Arioza Vargas</t>
+          <t>Bruno Azambuja Araujo</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>LAHPS Debate: História pública. 2021. (Outra).</t>
+          <t>ARAUJO, BRUNO; CASTRO, F. V. ; SEIXLACK, A. G. C. . Intelectuais indígenas e produção historiográfica: contribuições teórico-metodológicas à descolonização do pensamento. 2022. (Curso de curta duração ministrado/Outra).</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>André Arioza Vargas</t>
+          <t>Bruno Azambuja Araujo</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -3066,60 +2656,59 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Portugal e as descolonizações e independências na África: Novas perspectivas sobre o cenário internacional. 2021. (Outra).</t>
+          <t>ARAUJO, B. A.; BARBOSA, N. A. ; COSTA, H. M. C. R. . Novas possibilidades de análise através da história ambiental: olhar sobre as relações entre humanos e não humanos. 2021. (Curso de curta duração ministrado/Outra).</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>André Arioza Vargas</t>
+          <t>Bruno Martins de Castro</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Portugal e os 60 anos da Guerra Colonial. 2021. (Seminário).</t>
+          <t>CASTRO, B. M.; PRAXEDES, V. L. . Arquivos históricos e fontes primárias: usos, potencialidades e desafios para pesquisa - Minas Gerais, séculos XVIII e XIX. 2024. (Curso de curta duração ministrado/Outra).</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>André Arioza Vargas</t>
+          <t>Bruno Martins de Castro</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Racismo e memória colonial em Portugal do século XXI. 2021. (Outra).</t>
+          <t>CASTRO, B. M.. Iniciação à paleografia: os registros cartoriais de alforria - Oliveira/MG, século XIX. 2024. (Curso de curta duração ministrado/Outra).</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Beatriz Monteiro Lemos</t>
+          <t>Bruno Martins de Castro</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>VITAL, C. ;LEMOS, B. M.; German, M. ; SANTOS, L. . Extrema Direita no Brasi. 2024.
-						(Relatório de Pesquisa).</t>
+          <t>CASTRO, B. M.. Relatório Anual de Pesquisa (PROEX-CAPES) - Doutorado em História Social (PPGHIS-UFRJ) - Ano de Referência: 2023. 2024. (Relatório de pesquisa).</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Beatriz Monteiro Lemos</t>
+          <t>Bruno Martins de Castro</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -3127,15 +2716,14 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Extrema direita no Brasil Sujeitos e coletivos pela restauração nacional: Nova Gramática Política da Extrema Direita..
-						2024. (Encontro).</t>
+          <t>CASTRO, B. M.. Relatório Anual de Pesquisa (PROEX-CAPES) - Doutorado em História Social (PPGHIS-UFRJ) - Ano de Referência: 2023. 2024. (Relatório de pesquisa).</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Beatriz Monteiro Lemos</t>
+          <t>Bruno Martins de Castro</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -3143,15 +2731,14 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Uso Políticos do Holocausto e do Genocídio.Instrumentalização do Antissemitismo no Brasil.Negacionismo e conspiracionismo: a gramática de produção de inimigos para a produção de identidade da extrema direita brasileira.
-						2024. (Simpósio).</t>
+          <t>CASTRO, B. M.. Relatório Semestral de Pesquisa (PROEX-CAPES) - Doutorado em História Social (PPGHIS-UFRJ) - 1º semestre de 2024. 2024. (Relatório de pesquisa).</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Beatriz Monteiro Lemos</t>
+          <t>Bruno Martins de Castro</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -3159,14 +2746,15 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>XVII Congresso da Brazilian Studies Association. Conspiracy, Negationism, and Anti-Communism as References for Organization and Practice of the Far Right in Brazil: From the military coup to Bolsonarism. 2024. (Congresso).</t>
+          <t>CASTRO, B. M.; PRAXEDES, V. L. . Sociedades escravistas e relações de poder no Brasil dis séculos XVIII e XIX. 2024.
+						(Coordenação de mesa de comunicação (ST 07) - II Congresso de Ensino, Pesquisa e Extensão da UFU).</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Beatriz Monteiro Lemos</t>
+          <t>Bruno Martins de Castro</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -3174,14 +2762,14 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Direita Radical em Debate-USP. A colonização do judaísmo pelo bolsonarismo: estratégias da nova extrema direita brasileira. 2023. (Congresso).</t>
+          <t>CASTRO, B. M.; PRAXEDES, V. L. . Tráfico, cativeiro e alforrias nas Minas Gerais dos séculos XVIII e XIX: perspectivas de análises. 2023. (Curso de curta duração ministrado/Outra).</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Beatriz Monteiro Lemos</t>
+          <t>Bruno Martins de Castro</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -3189,15 +2777,14 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Egênero IV.História, Memória e Culturas Políticas: a revista "Presença da Mulher" no Movimento Feminista no Brasil (1986-2016).
-						2023. (Encontro).</t>
+          <t>CASTRO, B. M.; SILVA, G. C. M. . Fontes históricas e a construção da História do Brasil colonial e imperial. 2023. (Curso de curta duração ministrado/Outra).</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Beatriz Monteiro Lemos</t>
+          <t>Bruno Martins de Castro</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -3205,15 +2792,14 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Encontro Capixaba de Comunicadores.
-						2023. (Encontro).</t>
+          <t>CASTRO, B. M.; GAMA, M. P. ; SILVA, J. N. . Revista Ars Historica - Dossiê Diálogos em História Ambiental - v. 25. 2023. (Editoração/Periódico).</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Beatriz Monteiro Lemos</t>
+          <t>Bruno Martins de Castro</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -3221,14 +2807,14 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Encontro de Pesquisa: História Política e Extrema Direita. Encontro de Pesquisa: História Política e Extrema Direita.. 2023. (Congresso).</t>
+          <t>CASTRO, B. M.; GAMA, M. P. ; SILVA, J. N. . Revista Ars Historica - Dossiê História do Esporte: interfaces sociais, políticas e culturais - v. 26. 2023. (Editoração/Periódico).</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Beatriz Monteiro Lemos</t>
+          <t>Bruno Martins de Castro</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -3236,14 +2822,14 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Israel como modelo cultural: imaginários e usos na nova extrema-direita. 2023. (Outra).</t>
+          <t>CASTRO, B. M.. Relatório Semestral de Pesquisa (PROEX-CAPES) - Doutorado em História Social (PPGHIS-UFRJ) - 1º semestre de 2023. 2023. (Relatório de pesquisa).</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Beatriz Monteiro Lemos</t>
+          <t>Bruno Martins de Castro</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -3251,15 +2837,15 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Israel como Modelo Cultural: Imaginários e Usos na Nova Extrema-Direita.
-						2023. (Simpósio).</t>
+          <t>CASTRO, B. M.; PRAXEDES, V. L. . Sociedades escravistas e dinâmicas de poder no Brasil setecentista e oitocentista: novos olhares sobre aspectos socioeconômicos, políticos, culturais e identitários de nossa formação. 2023.
+						(Coordenação de mesa de comunicação (ST 01) - IX Semana de História do Pontal - UFU).</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Beatriz Monteiro Lemos</t>
+          <t>Bruno Martins de Castro</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -3267,95 +2853,92 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>11ª Semana de Integração Acadêmica da Universidade Federal do Rio de Janeiro.A Revista Presença Da Mulher E o Movimento Feminista No Brasil (1986-2016).
-						2022. (Encontro).</t>
+          <t>CASTRO, B. M.. Economia e Demografia da Escravidão e da Liberdade em Minas Gerais - Século XIX. 2022. (Curso de curta duração ministrado/Outra).</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Beatriz Monteiro Lemos</t>
+          <t>Bruno Martins de Castro</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1° Ciclo de Debates do IMAM.Raça, Gênero e Classe nas capas da revista Presença da Mulher.
-						2021. (Encontro).</t>
+          <t>CASTRO, B. M.. Tráfico, cativeiro e liberdade nas Minas Gerais do século XIX. 2022. (Curso de curta duração ministrado/Outra).</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Beatriz Monteiro Lemos</t>
+          <t>Bruno Martins de Castro</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>12º Encontro Nacional de História e 1º Encontro Internacional de História da UFAL.
-						2021. (Encontro).</t>
+          <t>CASTRO, B. M.. Tráfico, cativeiro e liberdade nas Minas Gerais do século XIX: um olhar a partir de São João del-Rei. 2022. (Curso de curta duração ministrado/Outra).</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Beatriz Monteiro Lemos</t>
+          <t>Bruno Martins de Castro</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1ª Semana da História na III Jornada de Ciência, Tecnologia e Inovação do UDF.História e Memória das Mulheres no Brasil: rompendo silenciamentos.
-						2021. (Encontro).</t>
+          <t>CASTRO, B. M.. Africanidades, História e Cultura Afro-brasileira. 2022.
+						(Coordenação de curso de formação para professores da rede pública estadual de ensino de Minas Gerais).</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Beatriz Monteiro Lemos</t>
+          <t>Bruno Martins de Castro</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>31º Simpósio Nacional de História: História, Verdade e Tecnologia.História, memória e política: o feminismo emancipacionista e as estratégias de luta das mulheres comunistas no brasil (1986-1988).
-						2021. (Simpósio).</t>
+          <t>CASTRO, B. M.; PRAXEDES, V. L. . Sociedade, Economia e Escravidão no Brasil dos séculos XVIII e XIX: temas, perspectivas e metodologias. 2022.
+						(Coordenação de mesa de comunicação (ST 16) - XXXIII Encontro Regional de História da ANPUH-MG).</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Beatriz Monteiro Lemos</t>
+          <t>Bruno Martins de Castro</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>31º Simpósio Nacional de História: História, Verdade e Tecnologia.
-						2021. (Simpósio).</t>
+          <t>CASTRO, B. M.; PRAXEDES, V. L. . Sociedade, Economia e Escravidão no Brasil do século XIX: temas, perspectivas e metodologias. 2022.
+						(Coordenação de mesa de comunicação (ST 08) - IV Semana Acadêmica de História da UEMG).</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Beatriz Monteiro Lemos</t>
+          <t>Bruno Martins de Castro</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -3363,15 +2946,14 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>História Oral, Memória e experiência na luta por direitos.
-						2021. (Encontro).</t>
+          <t>CASTRO, B. M.. Escravidão e liberdade nas Minas Gerais Oitocentistas: aspectos socioeconômicos e demográficos. 2021. (Curso de curta duração ministrado/Outra).</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Beatriz Monteiro Lemos</t>
+          <t>Bruno Martins de Castro</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -3379,46 +2961,44 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>I Jornada de Egressos Professor Manolo Florentino.
-						2021. (Encontro).</t>
+          <t>CASTRO, B. M.. Tráfico, cativeiro e alforrias: dinâmicas socioeconômicas e demográficas - Minas Gerais, primeira metade do século XIX. 2021. (Curso de curta duração ministrado/Outra).</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Beatriz Monteiro Lemos</t>
+          <t>Carla Bianca Carneiro Amarante Correia</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>VI Semana de História - Sujeitos, olhares e métodos: os desafios e perspectivas da interdisciplinaridade na História.
-						2021. (Encontro).</t>
+          <t>CORREIA, C. B. C. A.; NOGUEIRA, A. G. R. . Patrimônio cultural, museus e educação decolonial: curso livre de iniciação artística, cultural e técnica. 2023. (Curso de curta duração ministrado/Extensão).</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Beatriz Monteiro Lemos</t>
+          <t>Eraldo de Souza Leão Filho</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>German, M. ; FRANCA, D. ; ASSAF, S. ; BASTOS, B. ; MOREIRA, J. A. A. ;LEMOS, B. M.. Usos políticos do Holocausto e do Genocídio. 2024. (Congresso).</t>
+          <t>LEÃO FILHO, E. S.. História da Igreja no Brasil: A formação das dioceses no projeto de edificação cristã da sociedade (séc. XVI-XIX). 2021. (Curso de curta duração ministrado/Extensão).</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Beatriz Monteiro Lemos</t>
+          <t>Eric Fagundes de Carvalho</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -3426,45 +3006,44 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>German, M. ; MOREIRA, J. A. A. ;LEMOS, B. M.; ZUNINO, O. ; RIBAS, A. ; BASTOS, B. ; FRANCA, D. . Encontro de Pesquisa: História Política e Extrema Direita. 2023. (Congresso).</t>
+          <t>CARVALHO, E. F.; PORTO, Mylena . Revista Ars Historica 24ª Edição. 2023. (Editoração/Periódico).</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Bruna Aparecida Gomes Coelho</t>
+          <t>Eric Fagundes de Carvalho</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>SARAIVA, Daniel L. ;COELHO, Bruna A. G.. A música de Ellen de Lima. 2022.
-						(Produtos Tecnológicos).</t>
+          <t>CARVALHO, E. F.;BARBOSA, MAREANA; AREDES, A. E. . Introdução à Paleografia para os estudos em História Moderna, História Atlântica e Monarquias Ibéricas: leitura e transcrição de manuscritos (séculos XVII-XIX). 2021. (Curso de curta duração ministrado/Outra).</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Bruna Aparecida Gomes Coelho</t>
+          <t>Eric Fagundes de Carvalho</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>XVI Encontro Nacional de História Oral: Pandemia e Futuros Possíveis. História Oral da samba? Relato de experiência de uma pesquisa sobre memórias de mulheres do samba. 2022. (Congresso).</t>
+          <t>CARVALHO, E. F.; SANTOS, L. F ; FARIAS, Millena . Revista Ars Historica 21º Edição. 2021. (Editoração/Periódico).</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Bruna Aparecida Gomes Coelho</t>
+          <t>Eric Fagundes de Carvalho</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -3472,212 +3051,210 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1o Ciclo de Debates IMAM-UFRJ.?Eu posso falar qualquer coisa com essa voz?: o engajamento político de Nina Rosa no samba.
-						2021. (Encontro).</t>
+          <t>CARVALHO, E. F.; SANTOS, L. F . Revista Ars Historica 22º Edição. 2021. (Editoração/Periódico).</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Bruna Aparecida Gomes Coelho</t>
+          <t>Hana Mariana da Cruz Ribeiro Costa</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>COELHO, Bruna A. G.. XVI Encontro Nacional de História Oral: Pandemia e Futuros Possíveis. 2022. (Congresso).</t>
+          <t>COSTA, H. M. C. R.. Como os oceanos nos alimentam?. 2021. (Curso de curta duração ministrado/Outra).</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Bruno Azambuja Araujo</t>
+          <t>Hana Mariana da Cruz Ribeiro Costa</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>ARAUJO, BRUNO; CASTRO, F. V. ; SEIXLACK, A. G. C. . Intelectuais indígenas e produção historiográfica: contribuições teórico-metodológicas à descolonização do pensamento. 2022. (Curso de curta duração ministrado/Outra).</t>
+          <t>SILVA, F. B. ;COSTA, H. M. C. R.. História e Natureza: diferentes abordagens, fontes e debates.. 2021. (Editoração/Periódico).</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Bruno Azambuja Araujo</t>
+          <t>Iasmin Castro de Souza</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>ARAUJO, B. A.; BARBOSA, N. A. ; COSTA, H. M. C. R. . Novas possibilidades de análise através da história ambiental: olhar sobre as relações entre humanos e não humanos. 2021. (Curso de curta duração ministrado/Outra).</t>
+          <t>SOUZA, Iasmin C. de. Domínios da Imagem. Artigos Livres (n.32). 2023. (Editoração/Periódico).</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Bruno Azambuja Araujo</t>
+          <t>Iasmin Castro de Souza</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>X Encontro de Pesquisa em História EPHIS.História E Natureza: Diálogos Possíveis Entre Sociedade, Ambiente e Cultura.
-						2022. (Encontro).</t>
+          <t>SOUZA, Iasmin C. de. Domínios da Imagem. Artigos Livres (n.33). 2023. (Editoração/Periódico).</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Bruno Azambuja Araujo</t>
+          <t>Iasmin Castro de Souza</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>ARAUJO, B. A.; COSTA, H. M. C. R. ; BARBOSA, N. A. ; MOREIRA, P. F. ; SALES, G. P. S. . II Encontro Virtual de Grupos de Pesquisa e Laboratórios de HIstória Ambiental. 2021. (Congresso).</t>
+          <t>SOUZA, Iasmin C. de. Domínios da Imagem. História em Quadrinhos latino americanas. 2022. (Editoração/Periódico).</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Bruno Martins de Castro</t>
+          <t>Iasmin Castro de Souza</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>CASTRO, B. M.; PRAXEDES, V. L. . Arquivos históricos e fontes primárias: usos, potencialidades e desafios para pesquisa - Minas Gerais, séculos XVIII e XIX. 2024. (Curso de curta duração ministrado/Outra).</t>
+          <t>SOUZA, Iasmin C. de. Domínios da Imagem. Artigos Livres (n.31). 2022. (Editoração/Periódico).</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Bruno Martins de Castro</t>
+          <t>Iasmin Castro de Souza</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>CASTRO, B. M.. Iniciação à paleografia: os registros cartoriais de alforria - Oliveira/MG, século XIX. 2024. (Curso de curta duração ministrado/Outra).</t>
+          <t>SOUZA, Iasmin C. de. Domínios da Imagem. A Cultura dos Jogos. 2021. (Editoração/Periódico).</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Bruno Martins de Castro</t>
+          <t>Jefferson de Albuquerque Mendes</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>CASTRO, B. M.. Relatório Anual de Pesquisa (PROEX-CAPES) - Doutorado em História Social (PPGHIS-UFRJ) - Ano de Referência: 2023. 2024. (Relatório de pesquisa).</t>
+          <t>MENDES, J. A.. Traditio Sphaerae: o marco cosmológico esférico e o conhecimento científico nos processos de figuração celestial em imagens e textos. 2024. (Relatório de pesquisa).</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Bruno Martins de Castro</t>
+          <t>Jefferson de Albuquerque Mendes</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CASTRO, B. M.. Relatório Anual de Pesquisa (PROEX-CAPES) - Doutorado em História Social (PPGHIS-UFRJ) - Ano de Referência: 2023. 2024. (Relatório de pesquisa).</t>
+          <t>MENDES, J. A.; MARINHO, F. ; AZEVEDO, Evelyne . Figura: Studies on the Classical Tradition Vol. 10 No. 1 (2022). 2022. (Editoração/Periódico).</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Bruno Martins de Castro</t>
+          <t>Jefferson de Albuquerque Mendes</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>CASTRO, B. M.. Relatório Semestral de Pesquisa (PROEX-CAPES) - Doutorado em História Social (PPGHIS-UFRJ) - 1º semestre de 2024. 2024. (Relatório de pesquisa).</t>
+          <t>MENDES, J. A.; MARINHO, F. ; AZEVEDO, Evelyne . Figura: Studies on the Classical Tradition Vol. 9 No. 1 (2021). 2021. (Editoração/Periódico).</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Bruno Martins de Castro</t>
+          <t>Jefferson de Albuquerque Mendes</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>CASTRO, B. M.; PRAXEDES, V. L. . Sociedades escravistas e relações de poder no Brasil dis séculos XVIII e XIX. 2024.
-						(Coordenação de mesa de comunicação (ST 07) - II Congresso de Ensino, Pesquisa e Extensão da UFU).</t>
+          <t>MENDES, J. A.; MARINHO, F. ; AZEVEDO, Evelyne . Figura: Studies on the Classical Tradition Vol. 9 No. 2 (2021). 2021. (Editoração/Periódico).</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Bruno Martins de Castro</t>
+          <t>Julia Amaral Amato Moreira</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>CASTRO, B. M.; PRAXEDES, V. L. . Tráfico, cativeiro e alforrias nas Minas Gerais dos séculos XVIII e XIX: perspectivas de análises. 2023. (Curso de curta duração ministrado/Outra).</t>
+          <t>AMARAL, Julia.; VISCONTI, M. ; VIANA, A. . Coordenação do Simpósio Temático ?A Era dos Extremos: atuação e representação em experiências fascistas autoritárias e totalitárias (sécs. XX e XXI)? durante o IX Encontro de Pesquisa em História da UFMG (EPHIS), ocorrido de forma online entre 17 e 21 de maio de 2021. 2021. 2021.
+						(Coordenação de Simpósio Temático).</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Bruno Martins de Castro</t>
+          <t>Mariana Freitas de Andrade</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>CASTRO, B. M.; SILVA, G. C. M. . Fontes históricas e a construção da História do Brasil colonial e imperial. 2023. (Curso de curta duração ministrado/Outra).</t>
+          <t>ANDRADE, M. F.. Da mídia impressa à digital: as possibilidades de análise de fontes para a pesquisa histórica. 2024. (Curso de curta duração ministrado/Outra).</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Bruno Martins de Castro</t>
+          <t>Mariana Freitas de Andrade</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -3685,29 +3262,29 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>CASTRO, B. M.; GAMA, M. P. ; SILVA, J. N. . Revista Ars Historica - Dossiê Diálogos em História Ambiental - v. 25. 2023. (Editoração/Periódico).</t>
+          <t>ANDRADE, M. F.. História, Memória e Cultura Visual: disputas de narrativas em imagens do passado. 2023. (Curso de curta duração ministrado/Outra).</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Bruno Martins de Castro</t>
+          <t>Marina Salgado Pinto</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>CASTRO, B. M.; GAMA, M. P. ; SILVA, J. N. . Revista Ars Historica - Dossiê História do Esporte: interfaces sociais, políticas e culturais - v. 26. 2023. (Editoração/Periódico).</t>
+          <t>PINTO, MARINA SALGADO; CAPILE, B. ; OTOYA, N. ; PEREIRA, G. . Relações Ambientais na HIstória. 2021. (Curso de curta duração ministrado/Extensão).</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Bruno Martins de Castro</t>
+          <t>Maya Moldes da Rocha Pereira</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -3715,45 +3292,46 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>CASTRO, B. M.. Relatório Semestral de Pesquisa (PROEX-CAPES) - Doutorado em História Social (PPGHIS-UFRJ) - 1º semestre de 2023. 2023. (Relatório de pesquisa).</t>
+          <t>SILVA MELLO, L.L ;MOLDES,M.; ZAHNER, M. E. M. . Narrar o vivido, escrever a História: possibilidades para a historiografia a partir da Literatura de Testemunho. 2023.
+						(Coordenação de Simpósio Temático).</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Bruno Martins de Castro</t>
+          <t>Maya Moldes da Rocha Pereira</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>CASTRO, B. M.; PRAXEDES, V. L. . Sociedades escravistas e dinâmicas de poder no Brasil setecentista e oitocentista: novos olhares sobre aspectos socioeconômicos, políticos, culturais e identitários de nossa formação. 2023.
-						(Coordenação de mesa de comunicação (ST 01) - IX Semana de História do Pontal - UFU).</t>
+          <t>MOLDES,M.; SILVA, P. M. . (Des)construindo narrativas da História: novos sujeitos e perspectivas. 2021. (Editoração/Periódico).</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Bruno Martins de Castro</t>
+          <t>Millena Souza Farias</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>CASTRO, B. M.. Economia e Demografia da Escravidão e da Liberdade em Minas Gerais - Século XIX. 2022. (Curso de curta duração ministrado/Outra).</t>
+          <t>FARIAS, Millena S.. Colonização na América do Sul.
+						2023. (Desenvolvimento de material didático ou instrucional - Material didático / Instrucional).</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Bruno Martins de Castro</t>
+          <t>Millena Souza Farias</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -3761,61 +3339,59 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>CASTRO, B. M.. Tráfico, cativeiro e liberdade nas Minas Gerais do século XIX. 2022. (Curso de curta duração ministrado/Outra).</t>
+          <t>FARIAS, Millena S.; SILVA, A. G. ; ARAUJO, B. A. ; SALES, G. P. S. ; COSTA, H. M. C. R. ; LEITE, L. A. O. ; BARBOSA, N. A. ; MOREIRA, P. F. . Caderno de resumos do III Encontro Virtual de Grupos de Pesquisa e Laboratórios de História Ambiental do Brasil. 2022. (Editoração/Livro).</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Bruno Martins de Castro</t>
+          <t>Millena Souza Farias</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>CASTRO, B. M.. Tráfico, cativeiro e liberdade nas Minas Gerais do século XIX: um olhar a partir de São João del-Rei. 2022. (Curso de curta duração ministrado/Outra).</t>
+          <t>FARIAS, Millena S.; MONTEIRO, D. P. . Minicurso ? O Ofício do historiador: fontes e arquivos históricos. 2021. (Curso de curta duração ministrado/Outra).</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Bruno Martins de Castro</t>
+          <t>Milleni Freitas Rocha</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>CASTRO, B. M.. Africanidades, História e Cultura Afro-brasileira. 2022.
-						(Coordenação de curso de formação para professores da rede pública estadual de ensino de Minas Gerais).</t>
+          <t>ROCHA, M. F.. O Conflito Palestino-israelense. 2021. (Curso de curta duração ministrado/Outra).</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Bruno Martins de Castro</t>
+          <t>Mirella Soraya Pinheiro Rodrigues de Oliveira</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>CASTRO, B. M.; PRAXEDES, V. L. . Sociedade, Economia e Escravidão no Brasil dos séculos XVIII e XIX: temas, perspectivas e metodologias. 2022.
-						(Coordenação de mesa de comunicação (ST 16) - XXXIII Encontro Regional de História da ANPUH-MG).</t>
+          <t>OLIVEIRA, M.. A escrita do projeto de pesquisa: dúvidas principais. 2023. (Curso de curta duração ministrado/Outra).</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Bruno Martins de Castro</t>
+          <t>Mirella Soraya Pinheiro Rodrigues de Oliveira</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -3823,137 +3399,136 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>CASTRO, B. M.; PRAXEDES, V. L. . Sociedade, Economia e Escravidão no Brasil do século XIX: temas, perspectivas e metodologias. 2022.
-						(Coordenação de mesa de comunicação (ST 08) - IV Semana Acadêmica de História da UEMG).</t>
+          <t>OLIVEIRA, M.. Caminhos da Micro-História: contribuições e possibilidades. 2022. (Curso de curta duração ministrado/Outra).</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Bruno Martins de Castro</t>
+          <t>Mirella Soraya Pinheiro Rodrigues de Oliveira</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>CASTRO, B. M.. Escravidão e liberdade nas Minas Gerais Oitocentistas: aspectos socioeconômicos e demográficos. 2021. (Curso de curta duração ministrado/Outra).</t>
+          <t>OLIVEIRA, M.. Aula de encerramento do Cursinho de Escrita Acadêmica Maria Carolina de Jesus. 2022. (Curso de curta duração ministrado/Outra).</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Bruno Martins de Castro</t>
+          <t>Mylena Porto da Gama</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>CASTRO, B. M.. Tráfico, cativeiro e alforrias: dinâmicas socioeconômicas e demográficas - Minas Gerais, primeira metade do século XIX. 2021. (Curso de curta duração ministrado/Outra).</t>
+          <t>GAMA, Mylena; FREITAS, T. B. ; MANTUANO, T. V. . Georreferenciamento da Planta da Zona do Caes do Porto, antes de sua construção. 2022. (Cartas, mapas ou similares/Mapa).</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Bruno Sousa Silva Godinho</t>
+          <t>Naiara Müssnich Rotta Gomes de Assunção</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Jornada de Trabalho: Ciência medieval - novos caminhos.O que faz o alquimista? Elogio e censura na poesia alquímica inglesa do século XV. 2022. (Outra).</t>
+          <t>ASSUNÇÃO, Naiara M. R. G.. Dabke e a questão palestina. 2024. (Curso de curta duração ministrado/Outra).</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Bruno Sousa Silva Godinho</t>
+          <t>Naiara Müssnich Rotta Gomes de Assunção</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Global medievalism. 2021. (Congresso).</t>
+          <t>ASSUNÇÃO, NAIARA MÜSSNICH ROTTA GOMES DE. A dança dabke e sua história.
+						2024. (Desenvolvimento de material didático ou instrucional - Material Didático).</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Bruno Sousa Silva Godinho</t>
+          <t>Naiara Müssnich Rotta Gomes de Assunção</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>IV Seminário de História Medieval.Os gêneros do discurso alquímico ocidental (séculos XII-XV). 2021. (Seminário).</t>
+          <t>ASSUNÇÃO, NAIARA MÜSSNICH ROTTA GOMES DE. As origens históricas da Dança do Ventre.
+						2024. (Desenvolvimento de material didático ou instrucional - Material Didático).</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Bruno Sousa Silva Godinho</t>
+          <t>Naiara Müssnich Rotta Gomes de Assunção</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>XIV Encontro Internacional de Estudos Medievais. A composição do discurso versificado na poesia alquímica inglesa do século XV. 2021. (Congresso).</t>
+          <t>ASSUNÇÃO, NAIARA MÜSSNICH ROTTA GOMES DE; LELIS, FRANCISMARA . Historicamente falando: Tribal Fusion.. 2023. .</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Bruno Sousa Silva Godinho</t>
+          <t>Naiara Müssnich Rotta Gomes de Assunção</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>XV Semana de História Política.As possibilidades historiográficas da alquimia medieval. Sobre ciência, verdade e discursos.
-						2021. (Simpósio).</t>
+          <t>ASSUNÇÃO, NAIARA MÜSSNICH ROTTA GOMES DE. Danza Baladi Egípcia: Teoria y Practica. 2023. .</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Bruno Sousa Silva Godinho</t>
+          <t>Naiara Müssnich Rotta Gomes de Assunção</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>XX Semana de História.Alquimia e auctoritas. Uso de autoridades na elaboração de uma comunidade textual.
-						2021. (Simpósio).</t>
+          <t>ASSUNÇÃO, NAIARA MÜSSNICH ROTTA GOMES DE; PRESTES, Jéssica . As divas da música árabe e cigana: Umm Kulthum e Esma Redzepova. 2022. .</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Bruno Sousa Silva Godinho</t>
+          <t>Naiara Müssnich Rotta Gomes de Assunção</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -3961,74 +3536,74 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>GODINHO, Bruno Sousa Silva.; GONCALVES, R. A. ; NADLER, W. A. . Jornada de Trabalho: Ciência medieval - novos caminhos. 2022. (Outro).</t>
+          <t>ASSUNÇÃO, NAIARA MÜSSNICH ROTTA GOMES DE; PRESTES, Jéssica ; PASCHOAL, NINA INGRID CAPUTO ; LELIS, FRANCISMARA . Historicamente falando: Folclore. 2022. .</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Carla Bianca Carneiro Amarante Correia</t>
+          <t>Naiara Müssnich Rotta Gomes de Assunção</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>CORREIA, C. B. C. A.; NOGUEIRA, A. G. R. . Patrimônio cultural, museus e educação decolonial: curso livre de iniciação artística, cultural e técnica. 2023. (Curso de curta duração ministrado/Extensão).</t>
+          <t>ASSUNÇÃO, NAIARA MÜSSNICH ROTTA GOMES DE; PASCHOAL, NINA INGRID CAPUTO . Historicamente falando: Awálim. 2022. .</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Carla Bianca Carneiro Amarante Correia</t>
+          <t>Naiara Müssnich Rotta Gomes de Assunção</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>SEMINÁRIO DE FORMAÇÃO - CICLO CARNAVALESCO 2024. 2024. (Seminário).</t>
+          <t>ASSUNÇÃO, NAIARA MÜSSNICH ROTTA GOMES DE; PASCHOAL, NINA INGRID CAPUTO . Historicamente falando: Shaabi. 2022. .</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Carla Bianca Carneiro Amarante Correia</t>
+          <t>Naiara Müssnich Rotta Gomes de Assunção</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Ação Educativa em Museus e Espaços de Memória.Ação Educativa em Museus e Espaços de Memória. 2023. (Oficina).</t>
+          <t>ASSUNÇÃO, Naiara M. R. G.; SILVA, Ana Terra de Leon ; PRESTES, Jéssica ; PASCHOAL, Nina Ingrid . Orientalismo na Cultura Pop. 2021. .</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Carla Bianca Carneiro Amarante Correia</t>
+          <t>Naiara Müssnich Rotta Gomes de Assunção</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Seminário de Formação de Pesquisadores e Curadores do XVII Ceará  Ciclo Natalino. 2022. (Seminário).</t>
+          <t>ASSUNÇÃO, Naiara M. R. G.; SILVA, Ana Terra de Leon ; PRESTES, Jéssica ; PASCHOAL, Nina Ingrid . Historicamente falando: Baladi. 2021. .</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Carla Bianca Carneiro Amarante Correia</t>
+          <t>Naiara Müssnich Rotta Gomes de Assunção</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -4036,14 +3611,14 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Dificuldades e soluções durante a pandemia - 15º Primavera dos Museus.Dificuldades e soluções de pesquisa em memoriais e museus durante a pandemia. 2021. (Seminário).</t>
+          <t>ASSUNÇÃO, Naiara M. R. G.; SILVA, Ana Terra de Leon ; PRESTES, Jéssica ; PASCHOAL, Nina Ingrid . Historicamente falando: Ghawazee. 2021. .</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Carla Bianca Carneiro Amarante Correia</t>
+          <t>Naiara Müssnich Rotta Gomes de Assunção</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -4051,14 +3626,14 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>III Seminário Nacional História e Patrimônio Cultural Patrimônio, Resistência e Direitos.PROBLEMÁTICAS INTERSECCIONAIS NOS MUSEUS DO TRABALHO NO BRASIL E EM PORTUGAL (1989-2021). 2021. (Seminário).</t>
+          <t>ASSUNÇÃO, Naiara M. R. G.; SILVA, Ana Terra de Leon ; PRESTES, Jéssica ; PASCHOAL, Nina Ingrid . Historicamente falando: Kawliya. 2021. .</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Carla Bianca Carneiro Amarante Correia</t>
+          <t>Naiara Müssnich Rotta Gomes de Assunção</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -4066,45 +3641,46 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>XIII Encontro de Pesquisa e Pós-Graduação.SUOR, MEMÓRIA E NARRATIVA: AS MOBILIZAÇÕES PELA MEMÓRIA EM ESPAÇOS MUSEAIS DO TRABALHO.
-						2021. (Encontro).</t>
+          <t>ASSUNÇÃO, NAIARA MÜSSNICH ROTTA GOMES DE; PASCHOAL, NINA INGRID CAPUTO . Dança do ventre no século XIX: pinturas orientalistas e relatos de viagem. 2021. .</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Carla Bianca Carneiro Amarante Correia</t>
+          <t>Naiara Müssnich Rotta Gomes de Assunção</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>CORREIA, C. B. C. A.. 15ª Olimpíada Nacional de História do Brasil. 2023. .</t>
+          <t>ASSUNÇÃO, Naiara M. R. G.. Oficina 'Corpos no Museu'.
+						2021. (Desenvolvimento de material didático ou instrucional - Material Didático).</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Eraldo de Souza Leão Filho</t>
+          <t>Natalia de Souza Miranda</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>LEÃO FILHO, E. S.. História da Igreja no Brasil: A formação das dioceses no projeto de edificação cristã da sociedade (séc. XVI-XIX). 2021. (Curso de curta duração ministrado/Extensão).</t>
+          <t>MIRANDA, Natalia de Souza.. América Pré-colonial.
+						2023. (Desenvolvimento de material didático ou instrucional - Material instrucional para graduação EAD).</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Eraldo de Souza Leão Filho</t>
+          <t>Natalia de Souza Miranda</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -4112,14 +3688,14 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Jornada Teológico-Eucarística.Dom Leme e o Congresso Eucarístico de 1922: história e legado arquidiocesano. 2022. (Outra).</t>
+          <t>MIRANDA, Natalia de Souza.. RELATÓRIO ANUAL DE BOLSISTAS DE DOUTORADO / PPGHIS / UFRJ. 2022. (Relatório de pesquisa).</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Eraldo de Souza Leão Filho</t>
+          <t>Natalia de Souza Miranda</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -4127,29 +3703,30 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>GONZAGA, W.; MORAES, A. ; MONTEIRO, A. B. ;LEÃO FILHO, E. S.; BALBINO, F. . Jornada Teológico-Eucarística. 2022. (Outro).</t>
+          <t>MIRANDA, Natalia de Souza.. RELATÓRIO SEMESTRAL DE BOLSISTAS DE DOUTORADO / PPGHIS / UFRJ. 2022. (Relatório de pesquisa).</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Eraldo de Souza Leão Filho</t>
+          <t>Patrick Antunes Menezes</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>LEÃO FILHO, E. S.. Coordenação do Setor Temático "Religião e Religiosidades: o discurso religioso e a Direita ontem e hoje" no IV Seminário de pesquisa em História Social / I Seminário Internacional de História Social: Direitas Ontem e Hoje. 2021. (Outro).</t>
+          <t>MENEZES, Patrick Antunes. Produção da Disciplina 'Sistema socioeducativo e política de atendimento e medida de proteção' do Curso de Pós-Graduação Latu Sensu em Garantia dos Direitos e Política de Cuidados à Criança e ao Adolescente.
+						2023. (Desenvolvimento de material didático ou instrucional - Curso de Pós-Graduação Latu Sensu).</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Eric Fagundes de Carvalho</t>
+          <t>Patrick Antunes Menezes</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -4157,29 +3734,31 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>CARVALHO, E. F.; PORTO, Mylena . Revista Ars Historica 24ª Edição. 2023. (Editoração/Periódico).</t>
+          <t>MENEZES, Patrick Antunes. Produção da Disciplina 'As privações de liberdade e a relação com a proteção e garantia dos direitos das crianças' do Curso de Pós-Graduação Latu Sensu em Primeira Infância.
+						2023. (Desenvolvimento de material didático ou instrucional - Curso de Pós-Graduação Latu Sensu).</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Eric Fagundes de Carvalho</t>
+          <t>Patrick Antunes Menezes</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>CARVALHO, E. F.;BARBOSA, MAREANA; AREDES, A. E. . Introdução à Paleografia para os estudos em História Moderna, História Atlântica e Monarquias Ibéricas: leitura e transcrição de manuscritos (séculos XVII-XIX). 2021. (Curso de curta duração ministrado/Outra).</t>
+          <t>MENEZES, Patrick Antunes. Produção da Disciplina 'Fundamentos éticos do trabalho socioeducativo' do Curso de Pós-Graduação Latu Sensu em Políticas Públicas e Socioeducação.
+						2022. (Desenvolvimento de material didático ou instrucional - Curso de Pós-Graduação Latu Sensu).</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Eric Fagundes de Carvalho</t>
+          <t>Patrick Antunes Menezes</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -4187,59 +3766,61 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>CARVALHO, E. F.; SANTOS, L. F ; FARIAS, Millena . Revista Ars Historica 21º Edição. 2021. (Editoração/Periódico).</t>
+          <t>MENEZES, Patrick Antunes. Produção da Disciplina 'Política de Atendimento e Medidas de Proteção' do Curso de Pós-Graduação Latu Sensu em Sistema de Garantia de Direitos.
+						2021. (Desenvolvimento de material didático ou instrucional - Curso de Pós-Graduação Latu Sensu).</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Eric Fagundes de Carvalho</t>
+          <t>Paulo Celso Liberato Corrêa</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>CARVALHO, E. F.; SANTOS, L. F . Revista Ars Historica 22º Edição. 2021. (Editoração/Periódico).</t>
+          <t>CORRÊA, P. C. L.; MACRI, M. V. ; MORADO, F. ; PINHO, S. . A Exposição Internacional do Centenário da Independência e o Rio de Janeiro de 1922. 2022.
+						(Exposição Temporária).</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Eric Fagundes de Carvalho</t>
+          <t>Pedro Henrique da Silva Oriola Cardoso</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>CARVALHO, E. F.;BARBOSA, MAREANA; AREDES, A. E. . I Jornada de Egressos Professor Manolo Florentino. 2021. (Congresso).</t>
+          <t>CARDOSO, Pedro. Os portuários de Santos na transição política brasileira: contrarrevolução democrática, repressão e dominação de classe (1974-1988).. 2024. (Relatório de pesquisa).</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Eric Fagundes de Carvalho</t>
+          <t>Pedro Henrique da Silva Oriola Cardoso</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>CARVALHO, E. F.;BARBOSA, MAREANA;MELLO, PAULA. Entre Reinos e Ultramares: redes sociais, trajetórias e fios narrativos nas monarquias modernas (séculos XVI-XIX). 2021. (Outro).</t>
+          <t>CARDOSO, Pedro. Os portuários de Santos na transição política brasileira: contrarrevolução democrática, repressão e dominação de classe (1974-1988). 2023. (Relatório de pesquisa).</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Eric Fagundes de Carvalho</t>
+          <t>Pedro Henrique da Silva Oriola Cardoso</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -4247,2227 +3828,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>CARVALHO, E. F.;BARBOSA, MAREANA; AREDES, A. E. . Os Usos do Passado e as Disputas Narrativas na Escrita da História. 2021. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>Hana Mariana da Cruz Ribeiro Costa</t>
-        </is>
-      </c>
-      <c r="B96" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>COSTA, H. M. C. R.. Como os oceanos nos alimentam?. 2021. (Curso de curta duração ministrado/Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>Hana Mariana da Cruz Ribeiro Costa</t>
-        </is>
-      </c>
-      <c r="B97" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>SILVA, F. B. ;COSTA, H. M. C. R.. História e Natureza: diferentes abordagens, fontes e debates.. 2021. (Editoração/Periódico).</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>Iasmin Castro de Souza</t>
-        </is>
-      </c>
-      <c r="B98" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>SOUZA, Iasmin C. de. Domínios da Imagem. Artigos Livres (n.32). 2023. (Editoração/Periódico).</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>Iasmin Castro de Souza</t>
-        </is>
-      </c>
-      <c r="B99" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>SOUZA, Iasmin C. de. Domínios da Imagem. Artigos Livres (n.33). 2023. (Editoração/Periódico).</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>Iasmin Castro de Souza</t>
-        </is>
-      </c>
-      <c r="B100" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>SOUZA, Iasmin C. de. Domínios da Imagem. História em Quadrinhos latino americanas. 2022. (Editoração/Periódico).</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>Iasmin Castro de Souza</t>
-        </is>
-      </c>
-      <c r="B101" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>SOUZA, Iasmin C. de. Domínios da Imagem. Artigos Livres (n.31). 2022. (Editoração/Periódico).</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>Iasmin Castro de Souza</t>
-        </is>
-      </c>
-      <c r="B102" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>SOUZA, Iasmin C. de. Domínios da Imagem. A Cultura dos Jogos. 2021. (Editoração/Periódico).</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>Iasmin Castro de Souza</t>
-        </is>
-      </c>
-      <c r="B103" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>4º Simpósio ABHR Sudeste.A instituição zoroastriana na paisagem da diáspora.
-						2023. (Simpósio).</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>Iasmin Castro de Souza</t>
-        </is>
-      </c>
-      <c r="B104" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>Cartografias das Culturas - Encontro Latino Americano de Memórias, Territórios e Identidades.
-						2023. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>Iasmin Castro de Souza</t>
-        </is>
-      </c>
-      <c r="B105" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>Jornada Manoel Salgado.Paisagens da Diáspora: compreendendo a comunidade zoroastriana através do espaço.
-						2023. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>Iasmin Castro de Souza</t>
-        </is>
-      </c>
-      <c r="B106" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>VIII Encontro Nacional de Estudos da Imagem; V Encontro Internacional de Estudos da Imagem.Ptolomeu, Zaratustra ou Estrabão: um ensaio sobre as personagens em ?Escola de Atenas? de Rafael Sanzio.
-						2021. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>Iasmin Castro de Souza</t>
-        </is>
-      </c>
-      <c r="B107" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>SOUZA, I. C.. VIII Encontro Nacional de Estudos da Imagem. V Encontro Internacional de Estudos da Imagem. 2021. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>Jefferson de Albuquerque Mendes</t>
-        </is>
-      </c>
-      <c r="B108" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>MENDES, J. A.. Traditio Sphaerae: o marco cosmológico esférico e o conhecimento científico nos processos de figuração celestial em imagens e textos. 2024. (Relatório de pesquisa).</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>Jefferson de Albuquerque Mendes</t>
-        </is>
-      </c>
-      <c r="B109" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>MENDES, J. A.; MARINHO, F. ; AZEVEDO, Evelyne . Figura: Studies on the Classical Tradition Vol. 10 No. 1 (2022). 2022. (Editoração/Periódico).</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>Jefferson de Albuquerque Mendes</t>
-        </is>
-      </c>
-      <c r="B110" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>MENDES, J. A.; MARINHO, F. ; AZEVEDO, Evelyne . Figura: Studies on the Classical Tradition Vol. 9 No. 1 (2021). 2021. (Editoração/Periódico).</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>Jefferson de Albuquerque Mendes</t>
-        </is>
-      </c>
-      <c r="B111" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>MENDES, J. A.; MARINHO, F. ; AZEVEDO, Evelyne . Figura: Studies on the Classical Tradition Vol. 9 No. 2 (2021). 2021. (Editoração/Periódico).</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>Julia Amaral Amato Moreira</t>
-        </is>
-      </c>
-      <c r="B112" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>AMARAL, Julia.; VISCONTI, M. ; VIANA, A. . Coordenação do Simpósio Temático ?A Era dos Extremos: atuação e representação em experiências fascistas autoritárias e totalitárias (sécs. XX e XXI)? durante o IX Encontro de Pesquisa em História da UFMG (EPHIS), ocorrido de forma online entre 17 e 21 de maio de 2021. 2021. 2021.
-						(Coordenação de Simpósio Temático).</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>Jônatan Coutinho da Silva de Oliveira</t>
-        </is>
-      </c>
-      <c r="B113" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>Usos Políticos do Holocausto e do Genocídio.
-						2024. (Simpósio).</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>Jônatan Coutinho da Silva de Oliveira</t>
-        </is>
-      </c>
-      <c r="B114" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>XXVI Encontro Estadual de História da Anpuh-SP. O Futuro do Passado: Memória, História e Historiografia.
-						2022. (Simpósio).</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>Jônatan Coutinho da Silva de Oliveira</t>
-        </is>
-      </c>
-      <c r="B115" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>31º Simpósio Nacional de História da ANPUH - História, Verdade e Tecnologia.
-						2021. (Simpósio).</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>Laís Morgado Marcoje</t>
-        </is>
-      </c>
-      <c r="B116" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>3º Encontro Internacional História &amp; Parcerias e 7º Seminário Fluminense de Pós-Graduandos em História.?Castelhanos? e ?portugueses? nos vilancicos de Reis do século XVII. 2021. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>Livia Claro Pires</t>
-        </is>
-      </c>
-      <c r="B117" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>XVI ENCONTRO ESTADUAL DE HISTÓRIA DA ANPUH-RS: HISTÓRIA AGORA- ENSINAR, PESQUISAR, PROTAGONIZAR.
-						2022. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>Lucas de Mattos Moura Fernandes</t>
-        </is>
-      </c>
-      <c r="B118" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>FERNANDES, L. M. M.. Sefardismo no Marrocos: Aspectos e resultados de um encontro singular. 2021. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>Lucas Sampaio Costa Souza</t>
-        </is>
-      </c>
-      <c r="B119" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>Seminário Nacional História e Ficção: as formas do (des)encontro. 2024. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>Lucas Sampaio Costa Souza</t>
-        </is>
-      </c>
-      <c r="B120" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>Oficina SlaveVoyages para professores. 2023. (Oficina).</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>Lucas Sampaio Costa Souza</t>
-        </is>
-      </c>
-      <c r="B121" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>1º Encontro Linguagem e Política.
-						2022. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>Lucas Sampaio Costa Souza</t>
-        </is>
-      </c>
-      <c r="B122" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>Atividade Online Roda de Conversa Lendo o Massacre do Carandiru,. 2022. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>Lucas Sampaio Costa Souza</t>
-        </is>
-      </c>
-      <c r="B123" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>IX EPHIS: o lugar do historiador em tempos de crise.As identidades de Ifemelu: um retrato mais complexo do "estar no mundo" do nativo. 2022. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>Lucas Sampaio Costa Souza</t>
-        </is>
-      </c>
-      <c r="B124" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>A (in)consciência das palavras: os desafios do ser América Latina. 2021. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>Lucas Sampaio Costa Souza</t>
-        </is>
-      </c>
-      <c r="B125" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>I Ciclo Discente Online ? PPGH-UFSC História, Literatura e Imprensa.
-						2021. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>Lucas Sampaio Costa Souza</t>
-        </is>
-      </c>
-      <c r="B126" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>Semana Acadêmica de História UEMG.Historicidade transitória e releitura da história em Americanah, de Chimamanda Ngozi Adichie.
-						2021. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>Lucas Sampaio Costa Souza</t>
-        </is>
-      </c>
-      <c r="B127" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>Seminário Discente de Pesquisa em História.Escritas negras femininas: literatura, política e intelectualidade na construção do conhecimento histórico.
-						2021. (Simpósio).</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>Lucas Sampaio Costa Souza</t>
-        </is>
-      </c>
-      <c r="B128" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>Vicissitudes da construção memorial: nas margens da comemoração do centenário de Machado de Assis. 2021. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>Lucas Sampaio Costa Souza</t>
-        </is>
-      </c>
-      <c r="B129" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>VI Mostra das Pós-Graduações da UFOP.Historicidade do transitório e releitura da história em Americanah, de Chimamanda Ngozi Adichie.
-						2021. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>Mariana Freitas de Andrade</t>
-        </is>
-      </c>
-      <c r="B130" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>ANDRADE, M. F.. Da mídia impressa à digital: as possibilidades de análise de fontes para a pesquisa histórica. 2024. (Curso de curta duração ministrado/Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>Mariana Freitas de Andrade</t>
-        </is>
-      </c>
-      <c r="B131" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>ANDRADE, M. F.. História, Memória e Cultura Visual: disputas de narrativas em imagens do passado. 2023. (Curso de curta duração ministrado/Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>Mariana Freitas de Andrade</t>
-        </is>
-      </c>
-      <c r="B132" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>4º Workshop NAI - Acolhimento e atendimento dos alunos com transtornos. 2024. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>Mariana Freitas de Andrade</t>
-        </is>
-      </c>
-      <c r="B133" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>A Educação em Tempos de Pandemia: é possível calcular os prejuízos para a formação? (Fundação Cecierj). 2022. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>Mariana Freitas de Andrade</t>
-        </is>
-      </c>
-      <c r="B134" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>Dialogando com a Prática - Redes Sociais na Educação (Fundação Cecierj).
-						2022. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>Mariana Freitas de Andrade</t>
-        </is>
-      </c>
-      <c r="B135" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>III Seminário Metrópole, Turismo e Patrimônio - MEPAT; V Seminário Arquitetura, Urbanismo e Turismo - SAUT (UNIRIO). 2021. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>Mariana Freitas de Andrade</t>
-        </is>
-      </c>
-      <c r="B136" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>I Seminário Mundos das Artes, dos Museus e do Patrimônio. 2021. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>Mariana Freitas de Andrade</t>
-        </is>
-      </c>
-      <c r="B137" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>O remoto, o 100% online na web 2.0 e o híbrido: o desafio da interatividade (Fundação Cecierj).
-						2021. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>Mariana Freitas de Andrade</t>
-        </is>
-      </c>
-      <c r="B138" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>ANDRADE, M. F.. Jornada de Estudos Históricos Professor Manoel Salgado Guimarães 2024. 2024. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>Mariana Freitas de Andrade</t>
-        </is>
-      </c>
-      <c r="B139" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>ANDRADE, M. F.. Instagram da Revista Ars Historica. 2021. (Rede social).</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>Mariana Freitas de Andrade</t>
-        </is>
-      </c>
-      <c r="B140" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>ANDRADE, M. F.. Facebook da Revista Ars Historica. 2021. (Rede social).</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>Marina Salgado Pinto</t>
-        </is>
-      </c>
-      <c r="B141" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>PINTO, MARINA SALGADO; CAPILE, B. ; OTOYA, N. ; PEREIRA, G. . Relações Ambientais na HIstória. 2021. (Curso de curta duração ministrado/Extensão).</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>Maya Moldes da Rocha Pereira</t>
-        </is>
-      </c>
-      <c r="B142" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>SILVA MELLO, L.L ;MOLDES,M.; ZAHNER, M. E. M. . Narrar o vivido, escrever a História: possibilidades para a historiografia a partir da Literatura de Testemunho. 2023.
-						(Coordenação de Simpósio Temático).</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>Maya Moldes da Rocha Pereira</t>
-        </is>
-      </c>
-      <c r="B143" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>MOLDES,M.; SILVA, P. M. . (Des)construindo narrativas da História: novos sujeitos e perspectivas. 2021. (Editoração/Periódico).</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>Maya Moldes da Rocha Pereira</t>
-        </is>
-      </c>
-      <c r="B144" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>I Seminário Nacional LEFH - História e Ficção: as formas do (des)encontro.Uma herança desassossegada. 2024. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>Maya Moldes da Rocha Pereira</t>
-        </is>
-      </c>
-      <c r="B145" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>XII Seminário Brasileiro de Teoria e História da Historiografia (SNHH).Durante, depois: momentos testemunhais. 2024. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>Maya Moldes da Rocha Pereira</t>
-        </is>
-      </c>
-      <c r="B146" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>Ciclo de palestras - diálogos entre História e Literatura.Diálogos entre História e Literatura.
-						2023. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>Maya Moldes da Rocha Pereira</t>
-        </is>
-      </c>
-      <c r="B147" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>II Coloquio Internacional Red Iberoamericana Historia de la Historiografía.La biografía del historiador. 2023. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>Maya Moldes da Rocha Pereira</t>
-        </is>
-      </c>
-      <c r="B148" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>I Jornada de estudos em pensamento crítico contemporâneo.Escansão das imagens sobreviventes em Jorge Semprún. 2023. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>Maya Moldes da Rocha Pereira</t>
-        </is>
-      </c>
-      <c r="B149" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>Semana de História PUC - Rio.Sem margens, nem moldura: imaginando a escrita impetuosa de Lila.
-						2023. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>Maya Moldes da Rocha Pereira</t>
-        </is>
-      </c>
-      <c r="B150" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>XII Seminário Letras Expandidas Puc - Rio : poéticas da fratura, especulando costuras.O trapeiro poeta ou o poeta dos trapos. 2023. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>Maya Moldes da Rocha Pereira</t>
-        </is>
-      </c>
-      <c r="B151" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>XXXIX Semana de História: História dos povos originários: ancestralidade, colonialidade e resistência.Em lugar incerto e não sabido, uma cartografia para a história.
-						2023. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>Maya Moldes da Rocha Pereira</t>
-        </is>
-      </c>
-      <c r="B152" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>XI Seminário Brasileiro de Teoria e História da Historiografia.A disciplina histórica como artefato literário. 2022. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>Maya Moldes da Rocha Pereira</t>
-        </is>
-      </c>
-      <c r="B153" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>11ª Semana Acadêmica de História - Mídias e Representações.Por um anjo da História decolonial.
-						2021. (Simpósio).</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>Maya Moldes da Rocha Pereira</t>
-        </is>
-      </c>
-      <c r="B154" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>31° Simpósio Nacional de História: história, verdade e tecnologia.No canteiro de obras do testemunho.
-						2021. (Simpósio).</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>Maya Moldes da Rocha Pereira</t>
-        </is>
-      </c>
-      <c r="B155" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>Congresso Nacional de Pesquisadores em Estudos Judaicos 2021. Desmontar e remontar, até a legibilidade. 2021. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>Maya Moldes da Rocha Pereira</t>
-        </is>
-      </c>
-      <c r="B156" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>III Encontro de Pesquisa em Teoria da História e Historiografia.Verdade da experiência, imaginação e historiografia.
-						2021. (Simpósio).</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>Maya Moldes da Rocha Pereira</t>
-        </is>
-      </c>
-      <c r="B157" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>MOLDES,M.; ANGELOTTI, A. L. ; SILVA MELLO, L.L ; RODRIGUES, H. E. ; SILVA, T. A. M. . I Seminário Nacional LEFH - História e Ficção: as formas do (des)encontro. 2024. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>Maya Moldes da Rocha Pereira</t>
-        </is>
-      </c>
-      <c r="B158" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>MOLDES,M.; ANGELOTTI, A. L. . LEFH. 2023; Tema:
-						Página de divulgação das atividades do LEFH - Laboratório de Estudos sobre Ficção e História. (Rede social).</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>Maya Moldes da Rocha Pereira</t>
-        </is>
-      </c>
-      <c r="B159" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>MOLDES,M.. HISTOR. 2024; Tema:
-						Página de divulgação das atividades do HISTOR -  Núcleo de Estudos sobre Teoria da História e História da Historiografia. (Rede social).</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>Millena Souza Farias</t>
-        </is>
-      </c>
-      <c r="B160" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>FARIAS, Millena S.. Colonização na América do Sul.
-						2023. (Desenvolvimento de material didático ou instrucional - Material didático / Instrucional).</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>Millena Souza Farias</t>
-        </is>
-      </c>
-      <c r="B161" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>FARIAS, Millena S.; SILVA, A. G. ; ARAUJO, B. A. ; SALES, G. P. S. ; COSTA, H. M. C. R. ; LEITE, L. A. O. ; BARBOSA, N. A. ; MOREIRA, P. F. . Caderno de resumos do III Encontro Virtual de Grupos de Pesquisa e Laboratórios de História Ambiental do Brasil. 2022. (Editoração/Livro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>Millena Souza Farias</t>
-        </is>
-      </c>
-      <c r="B162" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>FARIAS, Millena S.; MONTEIRO, D. P. . Minicurso ? O Ofício do historiador: fontes e arquivos históricos. 2021. (Curso de curta duração ministrado/Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>Milleni Freitas Rocha</t>
-        </is>
-      </c>
-      <c r="B163" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>ROCHA, M. F.. O Conflito Palestino-israelense. 2021. (Curso de curta duração ministrado/Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>Milleni Freitas Rocha</t>
-        </is>
-      </c>
-      <c r="B164" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>IV Congresso Internacional de História: direitas ontem e hoje. O Holocausto como símbolo religioso para evangélicos brasileiros conservadores (século XXI). 2024. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>Milleni Freitas Rocha</t>
-        </is>
-      </c>
-      <c r="B165" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>VII Evento Discente de História do PPGH/UFRGS.A mobilização do Holocausto por evangélicos neopentecostais na política brasileira contemporânea.
-						2024. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>Milleni Freitas Rocha</t>
-        </is>
-      </c>
-      <c r="B166" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>Encontro de pesquisa: História Política e Extrema Direita.Uma psicanálise evangélica? O curso de formação do psicanalista na Faculdade Gospel.
-						2023. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>Milleni Freitas Rocha</t>
-        </is>
-      </c>
-      <c r="B167" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>3ª Jornada Virtual de Internacional em Pesquisa Científica.A psicanálise evangélica da Faculdade Gospel. 2021. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>Milleni Freitas Rocha</t>
-        </is>
-      </c>
-      <c r="B168" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>45º Encontro Anual da ANPOCS.O uso teológico e político da psicanálise pelos grupos evangélicos-assembleianos.
-						2021. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>Milleni Freitas Rocha</t>
-        </is>
-      </c>
-      <c r="B169" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>Congresso Nacional de Pesquisadores em Estudos Judaicos  - USP. O judeu e Israel imaginário para a psicanálise gospel. 2021. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>Milleni Freitas Rocha</t>
-        </is>
-      </c>
-      <c r="B170" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>Desafios do campo progressista para uma análise do conflito Israel-Palestina.Desafios do campo progressista para uma análise do conflito Israel-Palestina. 2021. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>Milleni Freitas Rocha</t>
-        </is>
-      </c>
-      <c r="B171" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>I Congresso de Ciências Sociais da UNESP/FCLAr ? Democracia, Instituições e Crises Sociais no Brasil Pós-Pandemia: perspectivas possíveis. A psicanálise evangélica da Assembleia de Deus (AD): Faculdade Gospel e formação do analista. 2021. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>Milleni Freitas Rocha</t>
-        </is>
-      </c>
-      <c r="B172" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>XXI Jornada Discente do Programa de Pós-graduação em Sociologia e Antropologia da Universidade Federal do Rio de Janeiro.A psicanálise evangélica da faculdade gospel ? o curso de formação do analista (2015-2021).
-						2021. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>Milleni Freitas Rocha</t>
-        </is>
-      </c>
-      <c r="B173" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>ROCHA, M. F.; MIZRAHI, G. ; AMARAL, J. ; LEMOS, B. ; GHERMAN, M. . Usos políticos do Holocausto e do genocídio. 2024. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>Milleni Freitas Rocha</t>
-        </is>
-      </c>
-      <c r="B174" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>ROCHA, M. F.; ZUCCARELLI, C. . X Seminário Fluminense de Sociologia. 2021. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>Mirella Soraya Pinheiro Rodrigues de Oliveira</t>
-        </is>
-      </c>
-      <c r="B175" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>OLIVEIRA, M.. A escrita do projeto de pesquisa: dúvidas principais. 2023. (Curso de curta duração ministrado/Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>Mirella Soraya Pinheiro Rodrigues de Oliveira</t>
-        </is>
-      </c>
-      <c r="B176" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>OLIVEIRA, M.. Caminhos da Micro-História: contribuições e possibilidades. 2022. (Curso de curta duração ministrado/Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>Mirella Soraya Pinheiro Rodrigues de Oliveira</t>
-        </is>
-      </c>
-      <c r="B177" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>OLIVEIRA, M.. Aula de encerramento do Cursinho de Escrita Acadêmica Maria Carolina de Jesus. 2022. (Curso de curta duração ministrado/Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>Mirella Soraya Pinheiro Rodrigues de Oliveira</t>
-        </is>
-      </c>
-      <c r="B178" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>Reflexões e possibilidades para o ensino de História da África nas escolas. 2023. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>Mirella Soraya Pinheiro Rodrigues de Oliveira</t>
-        </is>
-      </c>
-      <c r="B179" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>Semana de História 2022 UEG Campus Morrinhos. 2022. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>Mirella Soraya Pinheiro Rodrigues de Oliveira</t>
-        </is>
-      </c>
-      <c r="B180" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>Um conceito e suas muitas histórias: as dinâmicas de mestiçagens. 2022. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>Mirella Soraya Pinheiro Rodrigues de Oliveira</t>
-        </is>
-      </c>
-      <c r="B181" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>XV Encontro Internacional da ANPHLAC.
-						2022. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>Mirella Soraya Pinheiro Rodrigues de Oliveira</t>
-        </is>
-      </c>
-      <c r="B182" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>ART em Teses: Novas Pesquisas. 2021. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>Mirella Soraya Pinheiro Rodrigues de Oliveira</t>
-        </is>
-      </c>
-      <c r="B183" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>I Colóquio de Filologia e História: documentação histórica e narrativas de violência e de resistência nos séculos XVIII e XIX. 2021. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>Mirella Soraya Pinheiro Rodrigues de Oliveira</t>
-        </is>
-      </c>
-      <c r="B184" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>II Colóquio Internacional de Pesquisas em História do Brasil Império. 2021. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>Mirella Soraya Pinheiro Rodrigues de Oliveira</t>
-        </is>
-      </c>
-      <c r="B185" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>I Jornada de Egressos Professor Manolo Florentino. 2021. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>Mirella Soraya Pinheiro Rodrigues de Oliveira</t>
-        </is>
-      </c>
-      <c r="B186" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>IV Seminário Internacional Micro-História, Trajetórias e Imigração. 2021. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>Mirella Soraya Pinheiro Rodrigues de Oliveira</t>
-        </is>
-      </c>
-      <c r="B187" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>Seminário Internacional Antigo Regime nos Trópicos: 20 anos. 2021. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>Mylena Porto da Gama</t>
-        </is>
-      </c>
-      <c r="B188" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>GAMA, Mylena; FREITAS, T. B. ; MANTUANO, T. V. . Georreferenciamento da Planta da Zona do Caes do Porto, antes de sua construção. 2022. (Cartas, mapas ou similares/Mapa).</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>Mylena Porto da Gama</t>
-        </is>
-      </c>
-      <c r="B189" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>Jornada Manoel Salgado.Redes mercantis: as formas de acumulação de riqueza nas colônias ibéricas. 2023. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>Mylena Porto da Gama</t>
-        </is>
-      </c>
-      <c r="B190" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>ART em Teses: Novas Pesquisas. 2021. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>Mylena Porto da Gama</t>
-        </is>
-      </c>
-      <c r="B191" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>VII Congresso Internacional de História do Açúcar: Paisagens, Patrimônios e Identidades Açucareiras. 2021. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>Mylena Porto da Gama</t>
-        </is>
-      </c>
-      <c r="B192" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>GAMA, Mylena. III Jornada Discente de História Econômica. 2022. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>Naiara Müssnich Rotta Gomes de Assunção</t>
-        </is>
-      </c>
-      <c r="B193" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>ASSUNÇÃO, Naiara M. R. G.. Dabke e a questão palestina. 2024. (Curso de curta duração ministrado/Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>Naiara Müssnich Rotta Gomes de Assunção</t>
-        </is>
-      </c>
-      <c r="B194" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>ASSUNÇÃO, NAIARA MÜSSNICH ROTTA GOMES DE. A dança dabke e sua história.
-						2024. (Desenvolvimento de material didático ou instrucional - Material Didático).</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>Naiara Müssnich Rotta Gomes de Assunção</t>
-        </is>
-      </c>
-      <c r="B195" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>ASSUNÇÃO, NAIARA MÜSSNICH ROTTA GOMES DE. As origens históricas da Dança do Ventre.
-						2024. (Desenvolvimento de material didático ou instrucional - Material Didático).</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>Naiara Müssnich Rotta Gomes de Assunção</t>
-        </is>
-      </c>
-      <c r="B196" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>ASSUNÇÃO, NAIARA MÜSSNICH ROTTA GOMES DE; LELIS, FRANCISMARA . Historicamente falando: Tribal Fusion.. 2023. .</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>Naiara Müssnich Rotta Gomes de Assunção</t>
-        </is>
-      </c>
-      <c r="B197" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>ASSUNÇÃO, NAIARA MÜSSNICH ROTTA GOMES DE. Danza Baladi Egípcia: Teoria y Practica. 2023. .</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>Naiara Müssnich Rotta Gomes de Assunção</t>
-        </is>
-      </c>
-      <c r="B198" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>ASSUNÇÃO, NAIARA MÜSSNICH ROTTA GOMES DE; PRESTES, Jéssica . As divas da música árabe e cigana: Umm Kulthum e Esma Redzepova. 2022. .</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>Naiara Müssnich Rotta Gomes de Assunção</t>
-        </is>
-      </c>
-      <c r="B199" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>ASSUNÇÃO, NAIARA MÜSSNICH ROTTA GOMES DE; PRESTES, Jéssica ; PASCHOAL, NINA INGRID CAPUTO ; LELIS, FRANCISMARA . Historicamente falando: Folclore. 2022. .</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>Naiara Müssnich Rotta Gomes de Assunção</t>
-        </is>
-      </c>
-      <c r="B200" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>ASSUNÇÃO, NAIARA MÜSSNICH ROTTA GOMES DE; PASCHOAL, NINA INGRID CAPUTO . Historicamente falando: Awálim. 2022. .</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>Naiara Müssnich Rotta Gomes de Assunção</t>
-        </is>
-      </c>
-      <c r="B201" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>ASSUNÇÃO, NAIARA MÜSSNICH ROTTA GOMES DE; PASCHOAL, NINA INGRID CAPUTO . Historicamente falando: Shaabi. 2022. .</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>Naiara Müssnich Rotta Gomes de Assunção</t>
-        </is>
-      </c>
-      <c r="B202" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>ASSUNÇÃO, Naiara M. R. G.; SILVA, Ana Terra de Leon ; PRESTES, Jéssica ; PASCHOAL, Nina Ingrid . Orientalismo na Cultura Pop. 2021. .</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>Naiara Müssnich Rotta Gomes de Assunção</t>
-        </is>
-      </c>
-      <c r="B203" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>ASSUNÇÃO, Naiara M. R. G.; SILVA, Ana Terra de Leon ; PRESTES, Jéssica ; PASCHOAL, Nina Ingrid . Historicamente falando: Baladi. 2021. .</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>Naiara Müssnich Rotta Gomes de Assunção</t>
-        </is>
-      </c>
-      <c r="B204" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>ASSUNÇÃO, Naiara M. R. G.; SILVA, Ana Terra de Leon ; PRESTES, Jéssica ; PASCHOAL, Nina Ingrid . Historicamente falando: Ghawazee. 2021. .</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>Naiara Müssnich Rotta Gomes de Assunção</t>
-        </is>
-      </c>
-      <c r="B205" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>ASSUNÇÃO, Naiara M. R. G.; SILVA, Ana Terra de Leon ; PRESTES, Jéssica ; PASCHOAL, Nina Ingrid . Historicamente falando: Kawliya. 2021. .</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>Naiara Müssnich Rotta Gomes de Assunção</t>
-        </is>
-      </c>
-      <c r="B206" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>ASSUNÇÃO, NAIARA MÜSSNICH ROTTA GOMES DE; PASCHOAL, NINA INGRID CAPUTO . Dança do ventre no século XIX: pinturas orientalistas e relatos de viagem. 2021. .</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>Naiara Müssnich Rotta Gomes de Assunção</t>
-        </is>
-      </c>
-      <c r="B207" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>ASSUNÇÃO, Naiara M. R. G.. Oficina 'Corpos no Museu'.
-						2021. (Desenvolvimento de material didático ou instrucional - Material Didático).</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>Natalia de Souza Miranda</t>
-        </is>
-      </c>
-      <c r="B208" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>MIRANDA, Natalia de Souza.. América Pré-colonial.
-						2023. (Desenvolvimento de material didático ou instrucional - Material instrucional para graduação EAD).</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>Natalia de Souza Miranda</t>
-        </is>
-      </c>
-      <c r="B209" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>MIRANDA, Natalia de Souza.. RELATÓRIO ANUAL DE BOLSISTAS DE DOUTORADO / PPGHIS / UFRJ. 2022. (Relatório de pesquisa).</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>Natalia de Souza Miranda</t>
-        </is>
-      </c>
-      <c r="B210" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>MIRANDA, Natalia de Souza.. RELATÓRIO SEMESTRAL DE BOLSISTAS DE DOUTORADO / PPGHIS / UFRJ. 2022. (Relatório de pesquisa).</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>Patrick Antunes Menezes</t>
-        </is>
-      </c>
-      <c r="B211" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>MENEZES, Patrick Antunes. Produção da Disciplina 'Sistema socioeducativo e política de atendimento e medida de proteção' do Curso de Pós-Graduação Latu Sensu em Garantia dos Direitos e Política de Cuidados à Criança e ao Adolescente.
-						2023. (Desenvolvimento de material didático ou instrucional - Curso de Pós-Graduação Latu Sensu).</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>Patrick Antunes Menezes</t>
-        </is>
-      </c>
-      <c r="B212" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>MENEZES, Patrick Antunes. Produção da Disciplina 'As privações de liberdade e a relação com a proteção e garantia dos direitos das crianças' do Curso de Pós-Graduação Latu Sensu em Primeira Infância.
-						2023. (Desenvolvimento de material didático ou instrucional - Curso de Pós-Graduação Latu Sensu).</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>Patrick Antunes Menezes</t>
-        </is>
-      </c>
-      <c r="B213" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>MENEZES, Patrick Antunes. Produção da Disciplina 'Fundamentos éticos do trabalho socioeducativo' do Curso de Pós-Graduação Latu Sensu em Políticas Públicas e Socioeducação.
-						2022. (Desenvolvimento de material didático ou instrucional - Curso de Pós-Graduação Latu Sensu).</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>Patrick Antunes Menezes</t>
-        </is>
-      </c>
-      <c r="B214" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>MENEZES, Patrick Antunes. Produção da Disciplina 'Política de Atendimento e Medidas de Proteção' do Curso de Pós-Graduação Latu Sensu em Sistema de Garantia de Direitos.
-						2021. (Desenvolvimento de material didático ou instrucional - Curso de Pós-Graduação Latu Sensu).</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>Paulo Celso Liberato Corrêa</t>
-        </is>
-      </c>
-      <c r="B215" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>CORRÊA, P. C. L.; MACRI, M. V. ; MORADO, F. ; PINHO, S. . A Exposição Internacional do Centenário da Independência e o Rio de Janeiro de 1922. 2022.
-						(Exposição Temporária).</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>Pedro Henrique da Silva Oriola Cardoso</t>
-        </is>
-      </c>
-      <c r="B216" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>CARDOSO, Pedro. Os portuários de Santos na transição política brasileira: contrarrevolução democrática, repressão e dominação de classe (1974-1988).. 2024. (Relatório de pesquisa).</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>Pedro Henrique da Silva Oriola Cardoso</t>
-        </is>
-      </c>
-      <c r="B217" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>CARDOSO, Pedro. Os portuários de Santos na transição política brasileira: contrarrevolução democrática, repressão e dominação de classe (1974-1988). 2023. (Relatório de pesquisa).</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>Pedro Henrique da Silva Oriola Cardoso</t>
-        </is>
-      </c>
-      <c r="B218" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C218" t="inlineStr">
-        <is>
           <t>CARDOSO, Pedro. Os portuários de Santos na transição política brasileira: contrarrevolução democrática, repressão e dominação de classe (1974-1988). 2021. (Relatório de pesquisa).</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>Pedro Henrique da Silva Oriola Cardoso</t>
-        </is>
-      </c>
-      <c r="B219" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>Jornada de Estudos Históricos Professor Manoel Salgado.Os portuários de Santos na transição política brasileira: contrarrevolução democrática, repressão e dominação de classe (1974-1988).
-						2023. (Simpósio).</t>
-        </is>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>Pedro Henrique da Silva Oriola Cardoso</t>
-        </is>
-      </c>
-      <c r="B220" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>Primeras Jornadas de Tesistas en Historia social del trabajo, trabajadores/as  y movimiento obrero y sindical en los siglos XX y XXI.Os portuários de Santos na transição política brasileira: contrarrevolução democrática, repressão e dominação de classe (1974-1988).
-						2023. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>Pedro Henrique da Silva Oriola Cardoso</t>
-        </is>
-      </c>
-      <c r="B221" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C221" t="inlineStr">
-        <is>
-          <t>II Congresso Internacional de História: Direitas ontem e hoje.A Doutrina de Segurança Nacional e Mundos do Trabalho: a atuação da Companhia Docas de Santos durante a greve no porto de Santos em 1980. 2022. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>Pedro Henrique da Silva Oriola Cardoso</t>
-        </is>
-      </c>
-      <c r="B222" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>IV Congresso Internacional da Seção Brasileira da Associação de Historiadores latino- americanos e do Caribe. A Contrarrevolução Democrática, a Companhia Docas de Santos e os trabalhadores: A greve de 1980. 2022. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>Pedro Henrique da Silva Oriola Cardoso</t>
-        </is>
-      </c>
-      <c r="B223" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>CARDOSO, Pedro. Simpósio Temático- Ditaduras Militares e violações de direitos da classe trabalhadora: perspectivas na análise dos governos autoritários no Brasil e na América Latina- Jornada de Estudos Históricos Professor Manoel Salgado. 2023. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>Pedro Henrique Ferreira Danese Oliveira</t>
-        </is>
-      </c>
-      <c r="B224" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>2ª Semana de História.Minicurso nº2- Crime e gênero: abordagem histórica sobre criminalidade feminina nos séculos XIX e XX?. 2022. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>Pedro Henrique Ferreira Danese Oliveira</t>
-        </is>
-      </c>
-      <c r="B225" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>II Congresso Internacional de História: Direitas, Ontem e Hoje. crime no triângulo mineiro: Um estudo de caso. 2022. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>Pedro Henrique Ferreira Danese Oliveira</t>
-        </is>
-      </c>
-      <c r="B226" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C226" t="inlineStr">
-        <is>
-          <t>X EPHIS. ST 14: História do Crime e da Violência: cotidiano, atores e instituições. 2022. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>Pedro Henrique Ferreira Danese Oliveira</t>
-        </is>
-      </c>
-      <c r="B227" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C227" t="inlineStr">
-        <is>
-          <t>XIV ENCONTRO ESTADUAL DE HISTÓRIA DA ANPUH-PE ?HISTÓRIA: FOME, DIREITOS HUMANOS E DEMOCRACIA.Pare o trem! Estudo de caso de interno no Manicomio Judicíario de Barbacena.
-						2022. (Simpósio).</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>Pedro Henrique Ferreira Danese Oliveira</t>
-        </is>
-      </c>
-      <c r="B228" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>XIV ENCONTRO ESTADUAL DE HISTÓRIA DA ANPUH-PE ?HISTÓRIA: FOME, DIREITOS HUMANOS E DEMOCRACIA.
-						2022. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>Pedro Henrique Ferreira Danese Oliveira</t>
-        </is>
-      </c>
-      <c r="B229" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>I Seminário Discente de Pesquisa e Ensino-Universidade Federal de Ouro Preto.?Entre a política e a ciência a construção de um ideal de nação nas primeiras décadas do século XX?. 2021. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>Pedro Henrique Ferreira Danese Oliveira</t>
-        </is>
-      </c>
-      <c r="B230" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C230" t="inlineStr">
-        <is>
-          <t>IV Encontro Fluminense de Teoria da História e Historiografia. As Santas Casas de Diamantina e São João del Rei e o início da assistência aos alienados no estado de Minas Gerais. 2021. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>Pedro Henrique Ferreira Danese Oliveira</t>
-        </is>
-      </c>
-      <c r="B231" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C231" t="inlineStr">
-        <is>
-          <t>X Semana de História UFTM.Mulheres que matam- estudos de caso de infanticidas internadas no Manicômio Judiciário de Barbacena (1931-1940). 2021. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>Pedro Henrique Ferreira Danese Oliveira</t>
-        </is>
-      </c>
-      <c r="B232" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C232" t="inlineStr">
-        <is>
-          <t>XXXVII SEMANA DE HISTÓRIA - Cultura e Consciência Histórica: Paulo Freire e os desafios para o Século XX.Vidas Errantes: Análise da Trajetória de Internos do Manicômio Judiciário de Barbacena (1929-1941).
-						2021. (Simpósio).</t>
-        </is>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>Pedro Henrique Ferreira Danese Oliveira</t>
-        </is>
-      </c>
-      <c r="B233" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C233" t="inlineStr">
-        <is>
-          <t>OLIVEIRA, P. H. F. D.; SUTIL, S. S. . Minicurso nº2- Crime e gênero: abordagem histórica sobre criminalidade feminina nos séculos XIX e XX?. 2022. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>Pedro Henrique Ferreira Danese Oliveira</t>
-        </is>
-      </c>
-      <c r="B234" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C234" t="inlineStr">
-        <is>
-          <t>OLIVEIRA, P. H. F. D.; SUTIL, S. S. . coordenação do Simpósio Temático intitulado História do Crime, da Violência e da Justiça: atores e instituições. 2022. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>Pedro Henrique Ferreira Danese Oliveira</t>
-        </is>
-      </c>
-      <c r="B235" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>OLIVEIRA, P. H. F. D.. Coordenação de Simpósio Temático:  História do Crime, da Violência e da Justiça: atores e instituições.. 2022. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>Pedro Henrique Ferreira Danese Oliveira</t>
-        </is>
-      </c>
-      <c r="B236" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>OLIVEIRA, P. H. F. D.; SUTIL, S. S. . :Coordenação do minicurso: Crime e gênero: abordagem histórica sobre a criminalidade feminina nos séculos XIX e XX. 2022. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>Pedro Henrique Ferreira Danese Oliveira</t>
-        </is>
-      </c>
-      <c r="B237" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>OLIVEIRA, P. H. F. D.; C. M.S da S ; E.T de L ; R.F Gonçalves . Coordenação de Simpósio Temático- ?História do Crime e da Violência: cotidiano, atores e instituições?,. 2022. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t>Pedro Henrique Ferreira Danese Oliveira</t>
-        </is>
-      </c>
-      <c r="B238" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>OLIVEIRA, P. H. F. D.; E.T de L ; C. M.S da S ; R.F Gonçalves . História do Crime e da Violencia. 2022. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="inlineStr">
-        <is>
-          <t>Pedro Henrique Ferreira Danese Oliveira</t>
-        </is>
-      </c>
-      <c r="B239" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>OLIVEIRA, P. H. F. D.. ST 10: História do crime e da violência: atores e instituições. 2021. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="inlineStr">
-        <is>
-          <t>Tatiana Rodrigues Gama Russo</t>
-        </is>
-      </c>
-      <c r="B240" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>Seminário Nacional de História e Ficção."Escritas de si, ficção e não-ficção". 2024. (Seminário).</t>
         </is>
       </c>
     </row>
